--- a/data/DreamLeague22-23.xlsx
+++ b/data/DreamLeague22-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{6F62F577-DFCD-495C-8BE1-5ECDC2DA061C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4312CB10-24B4-4AE5-8A26-18666119A7AD}"/>
+  <xr:revisionPtr revIDLastSave="1466" documentId="8_{6F62F577-DFCD-495C-8BE1-5ECDC2DA061C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E3892B-DE1C-4B53-B670-20FC77BA8015}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="386">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -260,9 +260,6 @@
     <t>1st Round Qualifier</t>
   </si>
   <si>
-    <t>2nd Round Replay</t>
-  </si>
-  <si>
     <t>Semi-Finals</t>
   </si>
   <si>
@@ -1061,10 +1058,139 @@
     <t>CAMERON ARCHER</t>
   </si>
   <si>
-    <t>KYLE WOOTON</t>
-  </si>
-  <si>
     <t>(1 - 2)</t>
+  </si>
+  <si>
+    <t>KYLE WOOTTON</t>
+  </si>
+  <si>
+    <t>DAN AGYEI</t>
+  </si>
+  <si>
+    <t>JEVANI BROWN</t>
+  </si>
+  <si>
+    <t>NATHAN TELLA</t>
+  </si>
+  <si>
+    <t>GEORGE BYERS</t>
+  </si>
+  <si>
+    <t>TOM BRADSHAW</t>
+  </si>
+  <si>
+    <t>(6 - 0)</t>
+  </si>
+  <si>
+    <t>(4 - 2)</t>
+  </si>
+  <si>
+    <t>(5 - 1)</t>
+  </si>
+  <si>
+    <t>(2 - 0)</t>
+  </si>
+  <si>
+    <t>(3 - 2)</t>
+  </si>
+  <si>
+    <t>Qtr Final Replay</t>
+  </si>
+  <si>
+    <t>Game 13</t>
+  </si>
+  <si>
+    <t>(8 - 1)</t>
+  </si>
+  <si>
+    <t>DYNAMO DURHAM</t>
+  </si>
+  <si>
+    <t>WALLSALL</t>
+  </si>
+  <si>
+    <t>ALEXIS MACALLISTER</t>
+  </si>
+  <si>
+    <t>NOTTIGNHAM FOREST</t>
+  </si>
+  <si>
+    <t>EVAN FERGUSON</t>
+  </si>
+  <si>
+    <t>KI JANA HOEVER</t>
+  </si>
+  <si>
+    <t>JOSH GORDON</t>
+  </si>
+  <si>
+    <t>BARROW</t>
+  </si>
+  <si>
+    <t>KAORU MITOMA</t>
+  </si>
+  <si>
+    <t>DEVANTE COLE</t>
+  </si>
+  <si>
+    <t>CARL PIERGIANNI</t>
+  </si>
+  <si>
+    <t>(5 - 3)</t>
+  </si>
+  <si>
+    <t>(2 - 1)</t>
+  </si>
+  <si>
+    <t>(4 - 4)</t>
+  </si>
+  <si>
+    <t>(3 - 1)</t>
+  </si>
+  <si>
+    <t>CHAT GPT</t>
+  </si>
+  <si>
+    <t>PASCAL GROSS</t>
+  </si>
+  <si>
+    <t>ANEL AHMEDHODZIC</t>
+  </si>
+  <si>
+    <t>MANUEL BENSON</t>
+  </si>
+  <si>
+    <t>DEVANTE RODNEY</t>
+  </si>
+  <si>
+    <t>ROCHDALE</t>
+  </si>
+  <si>
+    <t>GUSTAVO HAMER</t>
+  </si>
+  <si>
+    <t>JERRY YATES</t>
+  </si>
+  <si>
+    <t>BLACKPOOL</t>
+  </si>
+  <si>
+    <t>JOSH UMERAH</t>
+  </si>
+  <si>
+    <t>HARTLEPOOL</t>
+  </si>
+  <si>
+    <t>OLI MCBURNIE</t>
+  </si>
+  <si>
+    <t>JAMIE REID</t>
+  </si>
+  <si>
+    <t>LUKE NORRIS</t>
+  </si>
+  <si>
+    <t>ROBOTICS ANONYMOUS</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1868,6 +1994,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3041,32 +3170,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX351"/>
+  <dimension ref="A1:IX377"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:O10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A350" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B353" sqref="B353:F377"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="86" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="86" customWidth="1"/>
     <col min="2" max="2" width="16" style="86" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="86" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="86" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="86" customWidth="1"/>
+    <col min="3" max="3" width="39.296875" style="86" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" style="86" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" style="86" customWidth="1"/>
     <col min="6" max="6" width="17" style="86" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="86" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="86" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="86" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="86" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" style="86" customWidth="1"/>
+    <col min="7" max="8" width="11.296875" style="86" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.69921875" style="86" customWidth="1"/>
+    <col min="10" max="10" width="7.19921875" style="86" customWidth="1"/>
+    <col min="11" max="11" width="25.69921875" style="86" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.296875" style="86" customWidth="1"/>
     <col min="13" max="14" width="12" style="86" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" style="86" customWidth="1"/>
+    <col min="15" max="15" width="10.296875" style="86" customWidth="1"/>
     <col min="16" max="258" width="9" style="86" customWidth="1"/>
     <col min="259" max="16384" width="9" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3085,7 +3214,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3106,7 +3235,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3123,7 +3252,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="88"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3160,23 +3289,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="88"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="112"/>
+      <c r="D5" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="113">
         <v>4</v>
       </c>
-      <c r="F5" s="15">
-        <v>35</v>
-      </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93"/>
+      <c r="F5" s="114">
+        <v>36</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="93">
+        <v>45022</v>
+      </c>
       <c r="I5" s="94"/>
       <c r="J5" s="91"/>
       <c r="K5" s="16" t="str">
@@ -3189,25 +3322,35 @@
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M17" si="0">N5-O5</f>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="N5" s="19">
         <f>SUM(F8:F25)</f>
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(F5:F7)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="88"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="95"/>
+      <c r="D6" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="21">
+        <v>8</v>
+      </c>
+      <c r="G6" s="95">
+        <v>45022</v>
+      </c>
       <c r="H6" s="93"/>
       <c r="I6" s="90"/>
       <c r="J6" s="88"/>
@@ -3221,18 +3364,18 @@
       </c>
       <c r="M6" s="25">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="N6" s="26">
         <f>SUM(F35:F52)</f>
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="O6" s="27">
         <f>SUM(F32:F34)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="88"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3253,33 +3396,33 @@
       </c>
       <c r="M7" s="25">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N7" s="26">
         <f>SUM(F62:F79)</f>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="O7" s="27">
         <f>SUM(F59:F61)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="88"/>
       <c r="B8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>173</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>174</v>
       </c>
       <c r="E8" s="29">
         <v>4</v>
       </c>
       <c r="F8" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="92"/>
       <c r="H8" s="84"/>
@@ -3294,27 +3437,27 @@
       </c>
       <c r="M8" s="25">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N8" s="26">
         <f>SUM(F89:F106)</f>
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="O8" s="27">
         <f>SUM(F86:F88)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="88"/>
       <c r="B9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>175</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>176</v>
       </c>
       <c r="E9" s="29">
         <v>2</v>
@@ -3336,33 +3479,33 @@
       </c>
       <c r="M9" s="25">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="N9" s="82">
         <f>SUM(F116:F133)</f>
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="O9" s="83">
         <f>SUM(F113:F115)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="88"/>
       <c r="B10" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" s="29">
         <v>6</v>
       </c>
       <c r="F10" s="30">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G10" s="97"/>
       <c r="H10" s="84"/>
@@ -3378,27 +3521,27 @@
       </c>
       <c r="M10" s="25">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N10" s="26">
         <f>SUM(F143:F160)</f>
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="O10" s="27">
         <f>SUM(F140:F142)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="88"/>
       <c r="B11" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="109">
         <v>1</v>
@@ -3407,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H11" s="93">
         <v>44791</v>
@@ -3424,30 +3567,30 @@
       </c>
       <c r="M11" s="25">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="N11" s="26">
         <f>SUM(F170:F187)</f>
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="O11" s="27">
         <f>SUM(F167:F169)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="88"/>
       <c r="B12" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="108" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F12" s="110">
         <v>5</v>
@@ -3474,29 +3617,29 @@
       </c>
       <c r="N12" s="82">
         <f>SUM(F197:F214)</f>
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="O12" s="83">
         <f>SUM(F194:F196)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="88"/>
       <c r="B13" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F13" s="30">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G13" s="97">
         <v>44924</v>
@@ -3514,27 +3657,27 @@
       </c>
       <c r="M13" s="25">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="N13" s="82">
         <f>SUM(F224:F241)</f>
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="O13" s="83">
         <f>SUM(F221:F223)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="88"/>
       <c r="B14" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="108" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="108" t="s">
         <v>209</v>
-      </c>
-      <c r="D14" s="108" t="s">
-        <v>210</v>
       </c>
       <c r="E14" s="109">
         <v>1</v>
@@ -3543,7 +3686,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H14" s="93">
         <v>44952</v>
@@ -3560,33 +3703,33 @@
       </c>
       <c r="M14" s="25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="N14" s="82">
         <f>SUM(F251:F268)</f>
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="O14" s="83">
         <f>SUM(F248:F250)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="88"/>
       <c r="B15" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F15" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="97">
         <v>44952</v>
@@ -3604,24 +3747,24 @@
       </c>
       <c r="M15" s="25">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N15" s="26">
         <f>SUM(F277:F295)</f>
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="O15" s="27">
         <f>SUM(F275:F276)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="88"/>
       <c r="B16" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>55</v>
@@ -3630,7 +3773,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G16" s="93"/>
       <c r="H16" s="93"/>
@@ -3646,27 +3789,27 @@
       </c>
       <c r="M16" s="25">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N16" s="26">
         <f>SUM(F305:F322)</f>
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="O16" s="27">
         <f>SUM(F302:F304)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="88"/>
       <c r="B17" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E17" s="109">
         <v>19</v>
@@ -3675,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H17" s="93">
         <v>44805</v>
@@ -3692,30 +3835,30 @@
       </c>
       <c r="M17" s="25">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N17" s="26">
         <f>SUM(F332:F349)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="O17" s="27">
         <f>SUM(F329:F331)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="88"/>
       <c r="B18" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="108" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D18" s="108" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F18" s="110">
         <v>1</v>
@@ -3734,22 +3877,22 @@
       <c r="N18" s="36"/>
       <c r="O18" s="37"/>
     </row>
-    <row r="19" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="88"/>
       <c r="B19" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F19" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="97">
         <v>44875</v>
@@ -3763,22 +3906,22 @@
       <c r="N19" s="98"/>
       <c r="O19" s="98"/>
     </row>
-    <row r="20" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="88"/>
       <c r="B20" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="29">
         <v>25</v>
       </c>
       <c r="F20" s="30">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G20" s="97"/>
       <c r="H20" s="84"/>
@@ -3790,13 +3933,13 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="88"/>
       <c r="B21" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D21" s="108" t="s">
         <v>31</v>
@@ -3808,7 +3951,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H21" s="93">
         <v>44924</v>
@@ -3821,22 +3964,22 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="88"/>
       <c r="B22" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F22" s="30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G22" s="97">
         <v>44924</v>
@@ -3850,16 +3993,16 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="88"/>
       <c r="B23" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="108" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" s="109">
         <v>17</v>
@@ -3868,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H23" s="93">
         <v>44784</v>
@@ -3881,19 +4024,19 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="88"/>
       <c r="B24" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="108" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D24" s="108" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F24" s="110">
         <v>10</v>
@@ -3912,22 +4055,22 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="88"/>
       <c r="B25" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F25" s="30">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G25" s="97">
         <v>44987</v>
@@ -3941,7 +4084,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
@@ -3952,7 +4095,7 @@
       </c>
       <c r="F26" s="43">
         <f>SUM(F8:F25)-SUM(F5:F7)</f>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="G26" s="89"/>
       <c r="H26" s="102"/>
@@ -3964,7 +4107,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3981,7 +4124,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3998,7 +4141,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4019,7 +4162,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4036,7 +4179,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="88"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4063,7 +4206,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="88"/>
       <c r="B32" s="12" t="s">
         <v>13</v>
@@ -4079,7 +4222,7 @@
         <v>19</v>
       </c>
       <c r="G32" s="89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H32" s="104">
         <v>44882</v>
@@ -4092,7 +4235,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="88"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -4100,10 +4243,10 @@
         <v>71</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F33" s="21">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G33" s="95">
         <v>44882</v>
@@ -4117,7 +4260,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="88"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4134,25 +4277,29 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="88"/>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="28" t="s">
+      <c r="C35" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="E35" s="29">
+      <c r="D35" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="109">
         <v>1</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="110">
         <v>1</v>
       </c>
-      <c r="G35" s="92"/>
-      <c r="H35" s="101"/>
+      <c r="G35" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="H35" s="101">
+        <v>45022</v>
+      </c>
       <c r="I35" s="99"/>
       <c r="J35" s="85"/>
       <c r="K35" s="1"/>
@@ -4161,24 +4308,26 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="88"/>
       <c r="B36" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>178</v>
+        <v>366</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="29">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="F36" s="30">
-        <v>2</v>
-      </c>
-      <c r="G36" s="101"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="101">
+        <v>45022</v>
+      </c>
       <c r="H36" s="101"/>
       <c r="I36" s="99"/>
       <c r="J36" s="85"/>
@@ -4188,13 +4337,23 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="88"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
+      <c r="B37" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="29">
+        <v>1</v>
+      </c>
+      <c r="F37" s="30">
+        <v>3</v>
+      </c>
       <c r="G37" s="95"/>
       <c r="H37" s="104"/>
       <c r="I37" s="103"/>
@@ -4205,25 +4364,29 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="88"/>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D38" s="28" t="s">
+      <c r="C38" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="109">
         <v>1</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="110">
         <v>4</v>
       </c>
-      <c r="G38" s="92"/>
-      <c r="H38" s="101"/>
+      <c r="G38" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="H38" s="101">
+        <v>45015</v>
+      </c>
       <c r="I38" s="103"/>
       <c r="J38" s="85"/>
       <c r="K38" s="1"/>
@@ -4232,24 +4395,26 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="88"/>
       <c r="B39" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>110</v>
+        <v>358</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="29">
+        <v>107</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F39" s="30">
         <v>3</v>
       </c>
-      <c r="F39" s="30">
-        <v>8</v>
-      </c>
-      <c r="G39" s="97"/>
+      <c r="G39" s="97">
+        <v>45015</v>
+      </c>
       <c r="H39" s="100"/>
       <c r="I39" s="99"/>
       <c r="J39" s="85"/>
@@ -4259,22 +4424,22 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="88"/>
       <c r="B40" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="E40" s="29">
+        <v>3</v>
+      </c>
+      <c r="F40" s="30">
         <v>13</v>
-      </c>
-      <c r="F40" s="30">
-        <v>7</v>
       </c>
       <c r="G40" s="92"/>
       <c r="H40" s="101"/>
@@ -4286,13 +4451,23 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="88"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
+      <c r="B41" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="29">
+        <v>13</v>
+      </c>
+      <c r="F41" s="30">
+        <v>14</v>
+      </c>
       <c r="G41" s="97"/>
       <c r="H41" s="101"/>
       <c r="I41" s="99"/>
@@ -4303,7 +4478,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="88"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -4320,13 +4495,13 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="88"/>
       <c r="B43" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="108" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D43" s="108" t="s">
         <v>57</v>
@@ -4338,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H43" s="97">
         <v>44924</v>
@@ -4351,16 +4526,16 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="88"/>
       <c r="B44" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44" s="109">
         <v>2</v>
@@ -4369,7 +4544,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H44" s="101">
         <v>44924</v>
@@ -4382,22 +4557,22 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="88"/>
       <c r="B45" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F45" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" s="97">
         <v>44924</v>
@@ -4411,22 +4586,22 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="88"/>
       <c r="B46" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F46" s="30">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G46" s="101">
         <v>44924</v>
@@ -4440,13 +4615,13 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="88"/>
       <c r="B47" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>52</v>
@@ -4455,7 +4630,7 @@
         <v>13</v>
       </c>
       <c r="F47" s="30">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G47" s="92"/>
       <c r="H47" s="101"/>
@@ -4467,25 +4642,29 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="88"/>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="29">
+      <c r="C48" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="109">
         <v>1</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="110">
         <v>9</v>
       </c>
-      <c r="G48" s="97"/>
-      <c r="H48" s="101"/>
+      <c r="G48" s="97" t="s">
+        <v>255</v>
+      </c>
+      <c r="H48" s="101">
+        <v>44994</v>
+      </c>
       <c r="I48" s="99"/>
       <c r="J48" s="85"/>
       <c r="K48" s="1"/>
@@ -4494,29 +4673,27 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="88"/>
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="108" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="109">
-        <v>31</v>
-      </c>
-      <c r="F49" s="110">
+      <c r="C49" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F49" s="30">
         <v>4</v>
       </c>
-      <c r="G49" s="92" t="s">
-        <v>256</v>
-      </c>
-      <c r="H49" s="101">
-        <v>44945</v>
-      </c>
+      <c r="G49" s="97">
+        <v>44994</v>
+      </c>
+      <c r="H49" s="101"/>
       <c r="I49" s="99"/>
       <c r="J49" s="85"/>
       <c r="K49" s="1"/>
@@ -4525,27 +4702,29 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="88"/>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="E50" s="29" t="s">
+      <c r="C50" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="109">
+        <v>31</v>
+      </c>
+      <c r="F50" s="110">
+        <v>4</v>
+      </c>
+      <c r="G50" s="92" t="s">
         <v>255</v>
       </c>
-      <c r="F50" s="30">
-        <v>0</v>
-      </c>
-      <c r="G50" s="97">
+      <c r="H50" s="101">
         <v>44945</v>
       </c>
-      <c r="H50" s="104"/>
       <c r="I50" s="99"/>
       <c r="J50" s="85"/>
       <c r="K50" s="1"/>
@@ -4554,16 +4733,28 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="88"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="97"/>
+      <c r="B51" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F51" s="30">
+        <v>6</v>
+      </c>
+      <c r="G51" s="97">
+        <v>44945</v>
+      </c>
       <c r="H51" s="104"/>
-      <c r="I51" s="103"/>
+      <c r="I51" s="99"/>
       <c r="J51" s="85"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4571,7 +4762,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="88"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -4588,7 +4779,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
@@ -4599,7 +4790,7 @@
       </c>
       <c r="F53" s="43">
         <f>SUM(F35:F52)-SUM(F32:F34)</f>
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G53" s="89"/>
       <c r="H53" s="102"/>
@@ -4611,7 +4802,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4628,7 +4819,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4645,11 +4836,11 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>38</v>
@@ -4666,7 +4857,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4683,7 +4874,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="88"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -4710,20 +4901,20 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="88"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E59" s="14">
         <v>1</v>
       </c>
       <c r="F59" s="15">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G59" s="89"/>
       <c r="H59" s="102"/>
@@ -4735,7 +4926,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="88"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -4752,7 +4943,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="88"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -4769,7 +4960,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="88"/>
       <c r="B62" s="28" t="s">
         <v>15</v>
@@ -4796,25 +4987,29 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="88"/>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D63" s="28" t="s">
+      <c r="C63" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="E63" s="29">
+      <c r="E63" s="109">
         <v>1</v>
       </c>
-      <c r="F63" s="30">
+      <c r="F63" s="110">
         <v>3</v>
       </c>
-      <c r="G63" s="92"/>
-      <c r="H63" s="101"/>
+      <c r="G63" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="H63" s="101">
+        <v>45022</v>
+      </c>
       <c r="I63" s="100"/>
       <c r="J63" s="100"/>
       <c r="K63" s="1"/>
@@ -4823,14 +5018,26 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="88"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="97"/>
+      <c r="B64" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F64" s="21">
+        <v>0</v>
+      </c>
+      <c r="G64" s="97">
+        <v>45022</v>
+      </c>
       <c r="H64" s="100"/>
       <c r="I64" s="100"/>
       <c r="J64" s="85"/>
@@ -4840,13 +5047,13 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="88"/>
       <c r="B65" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>30</v>
@@ -4855,7 +5062,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G65" s="92"/>
       <c r="H65" s="100"/>
@@ -4867,13 +5074,13 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="88"/>
       <c r="B66" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C66" s="108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D66" s="108" t="s">
         <v>21</v>
@@ -4885,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H66" s="101">
         <v>44784</v>
@@ -4898,19 +5105,19 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="88"/>
       <c r="B67" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>34</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F67" s="30">
         <v>1</v>
@@ -4927,16 +5134,16 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="88"/>
       <c r="B68" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C68" s="108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D68" s="108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E68" s="109">
         <v>1</v>
@@ -4945,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H68" s="101">
         <v>44805</v>
@@ -4958,27 +5165,29 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="88"/>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="F69" s="21">
+      <c r="C69" s="116" t="s">
+        <v>289</v>
+      </c>
+      <c r="D69" s="116" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69" s="117" t="s">
+        <v>254</v>
+      </c>
+      <c r="F69" s="116">
         <v>2</v>
       </c>
       <c r="G69" s="97">
         <v>44805</v>
       </c>
-      <c r="H69" s="100"/>
+      <c r="H69" s="101">
+        <v>45022</v>
+      </c>
       <c r="I69" s="100"/>
       <c r="J69" s="85"/>
       <c r="K69" s="1"/>
@@ -4987,14 +5196,26 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="88"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="92"/>
+      <c r="B70" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F70" s="30">
+        <v>2</v>
+      </c>
+      <c r="G70" s="97">
+        <v>45022</v>
+      </c>
       <c r="H70" s="100"/>
       <c r="I70" s="100"/>
       <c r="J70" s="85"/>
@@ -5004,25 +5225,29 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="88"/>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="29">
+      <c r="E71" s="109">
         <v>4</v>
       </c>
-      <c r="F71" s="30">
-        <v>11</v>
-      </c>
-      <c r="G71" s="92"/>
-      <c r="H71" s="100"/>
+      <c r="F71" s="110">
+        <v>12</v>
+      </c>
+      <c r="G71" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="H71" s="101">
+        <v>45022</v>
+      </c>
       <c r="I71" s="100"/>
       <c r="J71" s="85"/>
       <c r="K71" s="1"/>
@@ -5031,24 +5256,26 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="88"/>
       <c r="B72" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>233</v>
+        <v>360</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E72" s="29">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="F72" s="30">
-        <v>12</v>
-      </c>
-      <c r="G72" s="92"/>
+        <v>2</v>
+      </c>
+      <c r="G72" s="97">
+        <v>45022</v>
+      </c>
       <c r="H72" s="101"/>
       <c r="I72" s="100"/>
       <c r="J72" s="85"/>
@@ -5058,25 +5285,25 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="88"/>
       <c r="B73" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="E73" s="29">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F73" s="30">
-        <v>10</v>
-      </c>
-      <c r="G73" s="97"/>
-      <c r="H73" s="100"/>
+        <v>14</v>
+      </c>
+      <c r="G73" s="92"/>
+      <c r="H73" s="101"/>
       <c r="I73" s="100"/>
       <c r="J73" s="106"/>
       <c r="K73" s="1"/>
@@ -5085,29 +5312,25 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="88"/>
-      <c r="B74" s="108" t="s">
+      <c r="B74" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="108" t="s">
-        <v>237</v>
-      </c>
-      <c r="D74" s="108" t="s">
-        <v>223</v>
-      </c>
-      <c r="E74" s="109">
-        <v>4</v>
-      </c>
-      <c r="F74" s="110">
-        <v>1</v>
-      </c>
-      <c r="G74" s="92" t="s">
-        <v>256</v>
-      </c>
-      <c r="H74" s="101">
-        <v>44798</v>
-      </c>
+      <c r="C74" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="29">
+        <v>43</v>
+      </c>
+      <c r="F74" s="30">
+        <v>10</v>
+      </c>
+      <c r="G74" s="97"/>
+      <c r="H74" s="100"/>
       <c r="I74" s="100"/>
       <c r="J74" s="85"/>
       <c r="K74" s="1"/>
@@ -5116,28 +5339,28 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="88"/>
       <c r="B75" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C75" s="108" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="D75" s="108" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="109" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="109">
+        <v>4</v>
+      </c>
+      <c r="F75" s="110">
+        <v>1</v>
+      </c>
+      <c r="G75" s="92" t="s">
         <v>255</v>
       </c>
-      <c r="F75" s="110">
-        <v>0</v>
-      </c>
-      <c r="G75" s="97">
+      <c r="H75" s="101">
         <v>44798</v>
-      </c>
-      <c r="H75" s="101">
-        <v>44840</v>
       </c>
       <c r="I75" s="100"/>
       <c r="J75" s="85"/>
@@ -5147,28 +5370,28 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="88"/>
       <c r="B76" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C76" s="108" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="D76" s="108" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="E76" s="109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F76" s="110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G76" s="97">
+        <v>44798</v>
+      </c>
+      <c r="H76" s="101">
         <v>44840</v>
-      </c>
-      <c r="H76" s="101">
-        <v>44945</v>
       </c>
       <c r="I76" s="100"/>
       <c r="J76" s="85"/>
@@ -5178,27 +5401,29 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="88"/>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C77" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="F77" s="30">
-        <v>1</v>
+      <c r="C77" s="108" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" s="109" t="s">
+        <v>254</v>
+      </c>
+      <c r="F77" s="110">
+        <v>2</v>
       </c>
       <c r="G77" s="97">
+        <v>44840</v>
+      </c>
+      <c r="H77" s="101">
         <v>44945</v>
       </c>
-      <c r="H77" s="101"/>
       <c r="I77" s="100"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -5207,25 +5432,27 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="88"/>
       <c r="B78" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>248</v>
+        <v>329</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E78" s="29">
-        <v>17</v>
+        <v>330</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="F78" s="30">
-        <v>10</v>
-      </c>
-      <c r="G78" s="97"/>
-      <c r="H78" s="100"/>
+        <v>2</v>
+      </c>
+      <c r="G78" s="97">
+        <v>44945</v>
+      </c>
+      <c r="H78" s="101"/>
       <c r="I78" s="100"/>
       <c r="J78" s="85"/>
       <c r="K78" s="1"/>
@@ -5234,15 +5461,25 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="88"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="89"/>
-      <c r="H79" s="102"/>
+      <c r="B79" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="29">
+        <v>17</v>
+      </c>
+      <c r="F79" s="30">
+        <v>17</v>
+      </c>
+      <c r="G79" s="97"/>
+      <c r="H79" s="100"/>
       <c r="I79" s="102"/>
       <c r="J79" s="85"/>
       <c r="K79" s="1"/>
@@ -5251,7 +5488,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="40"/>
       <c r="C80" s="40"/>
@@ -5262,7 +5499,7 @@
       </c>
       <c r="F80" s="43">
         <f>SUM(F62:F79)-SUM(F59:F61)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G80" s="89"/>
       <c r="H80" s="102"/>
@@ -5274,7 +5511,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5291,7 +5528,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5308,7 +5545,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -5329,7 +5566,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5346,7 +5583,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="88"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -5373,20 +5610,20 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="88"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E86" s="14">
         <v>2</v>
       </c>
       <c r="F86" s="15">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G86" s="89"/>
       <c r="H86" s="104"/>
@@ -5398,7 +5635,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="88"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -5415,7 +5652,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="88"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -5432,16 +5669,16 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="88"/>
       <c r="B89" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C89" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" s="28" t="s">
         <v>181</v>
-      </c>
-      <c r="D89" s="28" t="s">
-        <v>182</v>
       </c>
       <c r="E89" s="29">
         <v>2</v>
@@ -5459,22 +5696,22 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="88"/>
       <c r="B90" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E90" s="29">
         <v>4</v>
       </c>
       <c r="F90" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="92"/>
       <c r="H90" s="100"/>
@@ -5486,7 +5723,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="88"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -5503,7 +5740,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="88"/>
       <c r="B92" s="28" t="s">
         <v>18</v>
@@ -5518,7 +5755,7 @@
         <v>17</v>
       </c>
       <c r="F92" s="30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G92" s="92"/>
       <c r="H92" s="101"/>
@@ -5530,16 +5767,16 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="88"/>
       <c r="B93" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C93" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="D93" s="108" t="s">
         <v>84</v>
-      </c>
-      <c r="D93" s="108" t="s">
-        <v>85</v>
       </c>
       <c r="E93" s="109">
         <v>3</v>
@@ -5548,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H93" s="101">
         <v>44784</v>
@@ -5561,22 +5798,22 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="88"/>
       <c r="B94" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F94" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G94" s="101">
         <v>44784</v>
@@ -5590,13 +5827,13 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="88"/>
       <c r="B95" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C95" s="108" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D95" s="108" t="s">
         <v>47</v>
@@ -5608,7 +5845,7 @@
         <v>4</v>
       </c>
       <c r="G95" s="101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H95" s="101">
         <v>44945</v>
@@ -5621,19 +5858,19 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="88"/>
       <c r="B96" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D96" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F96" s="30">
         <v>0</v>
@@ -5650,7 +5887,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="88"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -5667,13 +5904,13 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="88"/>
       <c r="B98" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D98" s="28" t="s">
         <v>31</v>
@@ -5682,7 +5919,7 @@
         <v>14</v>
       </c>
       <c r="F98" s="30">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G98" s="92"/>
       <c r="H98" s="101"/>
@@ -5694,7 +5931,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="88"/>
       <c r="B99" s="28" t="s">
         <v>22</v>
@@ -5703,13 +5940,13 @@
         <v>49</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E99" s="29">
         <v>17</v>
       </c>
       <c r="F99" s="30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G99" s="97"/>
       <c r="H99" s="101"/>
@@ -5721,16 +5958,16 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="88"/>
       <c r="B100" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C100" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D100" s="108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E100" s="109">
         <v>7</v>
@@ -5739,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H100" s="101">
         <v>44826</v>
@@ -5752,19 +5989,19 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="88"/>
       <c r="B101" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C101" s="108" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D101" s="108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E101" s="109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F101" s="110">
         <v>3</v>
@@ -5783,7 +6020,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="88"/>
       <c r="B102" s="28" t="s">
         <v>22</v>
@@ -5792,13 +6029,13 @@
         <v>342</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F102" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G102" s="97">
         <v>44973</v>
@@ -5812,16 +6049,16 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="88"/>
       <c r="B103" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C103" s="108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D103" s="108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E103" s="109">
         <v>3</v>
@@ -5830,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H103" s="101">
         <v>44791</v>
@@ -5843,22 +6080,22 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="88"/>
       <c r="B104" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D104" s="28" t="s">
         <v>45</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F104" s="30">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G104" s="97">
         <v>44791</v>
@@ -5872,16 +6109,16 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="88"/>
       <c r="B105" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C105" s="108" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D105" s="108" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E105" s="109">
         <v>20</v>
@@ -5890,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="G105" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H105" s="101">
         <v>44798</v>
@@ -5903,22 +6140,22 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="88"/>
       <c r="B106" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F106" s="30">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G106" s="97">
         <v>44798</v>
@@ -5932,7 +6169,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="40"/>
       <c r="C107" s="40"/>
@@ -5943,7 +6180,7 @@
       </c>
       <c r="F107" s="43">
         <f>SUM(F89:F106)-SUM(F86:F88)</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G107" s="89"/>
       <c r="H107" s="102"/>
@@ -5955,7 +6192,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5972,7 +6209,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5989,14 +6226,14 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="1"/>
@@ -6010,7 +6247,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6027,7 +6264,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="88"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -6054,14 +6291,14 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="88"/>
       <c r="B113" s="111" t="s">
         <v>13</v>
       </c>
       <c r="C113" s="112"/>
       <c r="D113" s="111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E113" s="113">
         <v>1</v>
@@ -6070,7 +6307,7 @@
         <v>11</v>
       </c>
       <c r="G113" s="89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H113" s="104">
         <v>44805</v>
@@ -6083,25 +6320,27 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="88"/>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C114" s="21"/>
-      <c r="D114" s="21" t="s">
+      <c r="C114" s="116"/>
+      <c r="D114" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="E114" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="F114" s="21">
-        <v>34</v>
+      <c r="E114" s="117" t="s">
+        <v>254</v>
+      </c>
+      <c r="F114" s="116">
+        <v>36</v>
       </c>
       <c r="G114" s="104">
         <v>44805</v>
       </c>
-      <c r="H114" s="102"/>
+      <c r="H114" s="104">
+        <v>45015</v>
+      </c>
       <c r="I114" s="100"/>
       <c r="J114" s="85"/>
       <c r="K114" s="1"/>
@@ -6110,14 +6349,24 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="88"/>
-      <c r="B115" s="21"/>
+      <c r="B115" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="89"/>
+      <c r="D115" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F115" s="21">
+        <v>14</v>
+      </c>
+      <c r="G115" s="95">
+        <v>45015</v>
+      </c>
       <c r="H115" s="102"/>
       <c r="I115" s="102"/>
       <c r="J115" s="85"/>
@@ -6127,13 +6376,13 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="88"/>
       <c r="B116" s="108" t="s">
         <v>15</v>
       </c>
       <c r="C116" s="108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D116" s="108" t="s">
         <v>50</v>
@@ -6145,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H116" s="101">
         <v>44791</v>
@@ -6158,22 +6407,22 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="88"/>
       <c r="B117" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F117" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G117" s="95">
         <v>44791</v>
@@ -6187,16 +6436,16 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="88"/>
       <c r="B118" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E118" s="29">
         <v>3</v>
@@ -6214,16 +6463,16 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="88"/>
       <c r="B119" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C119" s="108" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D119" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E119" s="109">
         <v>1</v>
@@ -6232,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="G119" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H119" s="101">
         <v>44791</v>
@@ -6245,19 +6494,19 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="88"/>
       <c r="B120" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C120" s="108" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D120" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E120" s="109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F120" s="110">
         <v>5</v>
@@ -6276,22 +6525,22 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="88"/>
       <c r="B121" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E121" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F121" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G121" s="97">
         <v>44938</v>
@@ -6305,13 +6554,13 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="88"/>
       <c r="B122" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D122" s="28" t="s">
         <v>26</v>
@@ -6320,7 +6569,7 @@
         <v>9</v>
       </c>
       <c r="F122" s="30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G122" s="97"/>
       <c r="H122" s="100"/>
@@ -6332,22 +6581,22 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="88"/>
       <c r="B123" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E123" s="29">
         <v>1</v>
       </c>
       <c r="F123" s="30">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G123" s="89"/>
       <c r="H123" s="104"/>
@@ -6359,7 +6608,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="88"/>
       <c r="B124" s="28" t="s">
         <v>22</v>
@@ -6374,7 +6623,7 @@
         <v>50</v>
       </c>
       <c r="F124" s="30">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G124" s="95"/>
       <c r="H124" s="104"/>
@@ -6386,22 +6635,22 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="88"/>
       <c r="B125" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E125" s="29">
         <v>4</v>
       </c>
       <c r="F125" s="30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" s="97"/>
       <c r="H125" s="100"/>
@@ -6413,16 +6662,16 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="88"/>
       <c r="B126" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C126" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D126" s="108" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E126" s="109">
         <v>4</v>
@@ -6431,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="G126" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H126" s="101">
         <v>44798</v>
@@ -6444,22 +6693,22 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="88"/>
       <c r="B127" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C127" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D127" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="D127" s="28" t="s">
-        <v>281</v>
-      </c>
       <c r="E127" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F127" s="30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G127" s="97">
         <v>44798</v>
@@ -6473,13 +6722,13 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="88"/>
       <c r="B128" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C128" s="108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D128" s="108" t="s">
         <v>21</v>
@@ -6491,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H128" s="101">
         <v>44812</v>
@@ -6504,19 +6753,19 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="88"/>
       <c r="B129" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C129" s="108" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D129" s="108" t="s">
         <v>45</v>
       </c>
       <c r="E129" s="109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F129" s="110">
         <v>0</v>
@@ -6535,22 +6784,22 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="88"/>
       <c r="B130" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D130" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F130" s="30">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G130" s="97">
         <v>44931</v>
@@ -6564,16 +6813,16 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="88"/>
       <c r="B131" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C131" s="108" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D131" s="108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E131" s="109">
         <v>1</v>
@@ -6582,7 +6831,7 @@
         <v>8</v>
       </c>
       <c r="G131" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H131" s="101">
         <v>44875</v>
@@ -6595,19 +6844,19 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="88"/>
       <c r="B132" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C132" s="108" t="s">
+        <v>308</v>
+      </c>
+      <c r="D132" s="108" t="s">
         <v>309</v>
       </c>
-      <c r="D132" s="108" t="s">
-        <v>310</v>
-      </c>
       <c r="E132" s="109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F132" s="110">
         <v>0</v>
@@ -6626,22 +6875,22 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="88"/>
       <c r="B133" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F133" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G133" s="97">
         <v>44945</v>
@@ -6655,7 +6904,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="40"/>
       <c r="C134" s="40"/>
@@ -6666,7 +6915,7 @@
       </c>
       <c r="F134" s="43">
         <f>SUM(F116:F133)-SUM(F113:F115)</f>
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G134" s="89"/>
       <c r="H134" s="102"/>
@@ -6678,7 +6927,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6695,7 +6944,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6712,7 +6961,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="3" t="s">
@@ -6733,7 +6982,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6750,7 +6999,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="88"/>
       <c r="B139" s="6" t="s">
         <v>3</v>
@@ -6777,20 +7026,20 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="88"/>
       <c r="B140" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E140" s="14">
         <v>1</v>
       </c>
       <c r="F140" s="15">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G140" s="89"/>
       <c r="H140" s="104"/>
@@ -6802,7 +7051,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="88"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -6819,7 +7068,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="88"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -6836,22 +7085,22 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="88"/>
       <c r="B143" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C143" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E143" s="29">
         <v>1</v>
       </c>
       <c r="F143" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G143" s="92"/>
       <c r="H143" s="101"/>
@@ -6863,16 +7112,16 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="88"/>
       <c r="B144" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C144" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E144" s="29">
         <v>3</v>
@@ -6890,7 +7139,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="88"/>
       <c r="B145" s="28"/>
       <c r="C145" s="21"/>
@@ -6907,7 +7156,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="88"/>
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
@@ -6924,7 +7173,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="88"/>
       <c r="B147" s="28" t="s">
         <v>18</v>
@@ -6939,7 +7188,7 @@
         <v>17</v>
       </c>
       <c r="F147" s="30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G147" s="92"/>
       <c r="H147" s="100"/>
@@ -6951,16 +7200,16 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="88"/>
       <c r="B148" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C148" s="108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D148" s="108" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E148" s="109">
         <v>1</v>
@@ -6969,7 +7218,7 @@
         <v>2</v>
       </c>
       <c r="G148" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H148" s="101">
         <v>44938</v>
@@ -6982,22 +7231,22 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="88"/>
       <c r="B149" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D149" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F149" s="30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G149" s="97">
         <v>44938</v>
@@ -7011,22 +7260,22 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="88"/>
       <c r="B150" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C150" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E150" s="29">
         <v>1</v>
       </c>
       <c r="F150" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G150" s="101"/>
       <c r="H150" s="101"/>
@@ -7038,16 +7287,16 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="88"/>
       <c r="B151" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C151" s="108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D151" s="108" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E151" s="109">
         <v>19</v>
@@ -7056,7 +7305,7 @@
         <v>3</v>
       </c>
       <c r="G151" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H151" s="101">
         <v>44938</v>
@@ -7069,22 +7318,22 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="88"/>
       <c r="B152" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D152" s="28" t="s">
         <v>26</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F152" s="30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G152" s="97">
         <v>44938</v>
@@ -7098,16 +7347,16 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="88"/>
       <c r="B153" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C153" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D153" s="28" t="s">
         <v>222</v>
-      </c>
-      <c r="D153" s="28" t="s">
-        <v>223</v>
       </c>
       <c r="E153" s="29">
         <v>4</v>
@@ -7125,13 +7374,13 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="88"/>
       <c r="B154" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D154" s="28" t="s">
         <v>37</v>
@@ -7140,7 +7389,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G154" s="92"/>
       <c r="H154" s="101"/>
@@ -7152,7 +7401,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="88"/>
       <c r="B155" s="28" t="s">
         <v>22</v>
@@ -7167,7 +7416,7 @@
         <v>19</v>
       </c>
       <c r="F155" s="30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G155" s="97"/>
       <c r="H155" s="101"/>
@@ -7179,7 +7428,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="88"/>
       <c r="B156" s="108" t="s">
         <v>22</v>
@@ -7197,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H156" s="101">
         <v>44805</v>
@@ -7210,19 +7459,19 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="88"/>
       <c r="B157" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="108" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D157" s="108" t="s">
         <v>26</v>
       </c>
       <c r="E157" s="109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F157" s="110">
         <v>3</v>
@@ -7241,19 +7490,19 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="88"/>
       <c r="B158" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E158" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F158" s="21">
         <v>2</v>
@@ -7270,7 +7519,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="88"/>
       <c r="B159" s="21"/>
       <c r="C159" s="21"/>
@@ -7287,7 +7536,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="88"/>
       <c r="B160" s="38"/>
       <c r="C160" s="38"/>
@@ -7304,7 +7553,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="40"/>
       <c r="C161" s="40"/>
@@ -7315,7 +7564,7 @@
       </c>
       <c r="F161" s="43">
         <f>SUM(F143:F160)-SUM(F140:F142)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G161" s="89"/>
       <c r="H161" s="102"/>
@@ -7327,7 +7576,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7344,7 +7593,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7361,7 +7610,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3" t="s">
@@ -7382,7 +7631,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -7399,7 +7648,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="88"/>
       <c r="B166" s="6" t="s">
         <v>3</v>
@@ -7426,7 +7675,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="88"/>
       <c r="B167" s="111" t="s">
         <v>13</v>
@@ -7442,7 +7691,7 @@
         <v>7</v>
       </c>
       <c r="G167" s="89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H167" s="104">
         <v>44791</v>
@@ -7455,20 +7704,20 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="88"/>
       <c r="B168" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C168" s="21"/>
       <c r="D168" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F168" s="21">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G168" s="95">
         <v>44791</v>
@@ -7482,7 +7731,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="88"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -7499,13 +7748,13 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="88"/>
       <c r="B170" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D170" s="28" t="s">
         <v>52</v>
@@ -7526,13 +7775,13 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="88"/>
       <c r="B171" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C171" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D171" s="28" t="s">
         <v>26</v>
@@ -7553,15 +7802,25 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="88"/>
-      <c r="B172" s="28"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="30"/>
+      <c r="B172" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D172" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E172" s="29">
+        <v>13</v>
+      </c>
+      <c r="F172" s="30">
+        <v>15</v>
+      </c>
       <c r="G172" s="92"/>
-      <c r="H172" s="100"/>
+      <c r="H172" s="101"/>
       <c r="I172" s="100"/>
       <c r="J172" s="85"/>
       <c r="K172" s="1"/>
@@ -7570,26 +7829,30 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="88"/>
-      <c r="B173" s="28" t="s">
+      <c r="B173" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C173" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D173" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E173" s="29">
-        <v>13</v>
-      </c>
-      <c r="F173" s="30">
-        <v>13</v>
-      </c>
-      <c r="G173" s="92"/>
-      <c r="H173" s="101"/>
-      <c r="I173" s="100"/>
+      <c r="C173" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="D173" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="E173" s="109">
+        <v>1</v>
+      </c>
+      <c r="F173" s="110">
+        <v>0</v>
+      </c>
+      <c r="G173" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="H173" s="101">
+        <v>44791</v>
+      </c>
+      <c r="I173" s="101"/>
       <c r="J173" s="85"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -7597,30 +7860,28 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="88"/>
-      <c r="B174" s="108" t="s">
+      <c r="B174" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C174" s="108" t="s">
+      <c r="C174" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="D174" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="D174" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="E174" s="109">
-        <v>1</v>
-      </c>
-      <c r="F174" s="110">
-        <v>0</v>
-      </c>
-      <c r="G174" s="92" t="s">
-        <v>256</v>
-      </c>
-      <c r="H174" s="101">
+      <c r="E174" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F174" s="30">
+        <v>5</v>
+      </c>
+      <c r="G174" s="101">
         <v>44791</v>
       </c>
-      <c r="I174" s="101"/>
+      <c r="H174" s="100"/>
+      <c r="I174" s="100"/>
       <c r="J174" s="85"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -7628,85 +7889,87 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="88"/>
-      <c r="B175" s="28" t="s">
+      <c r="B175" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="D175" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E175" s="29" t="s">
+      <c r="C175" s="108" t="s">
+        <v>215</v>
+      </c>
+      <c r="D175" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="E175" s="109">
+        <v>1</v>
+      </c>
+      <c r="F175" s="110">
+        <v>1</v>
+      </c>
+      <c r="G175" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="F175" s="30">
-        <v>3</v>
-      </c>
-      <c r="G175" s="101">
-        <v>44791</v>
-      </c>
-      <c r="H175" s="100"/>
+      <c r="H175" s="101">
+        <v>44805</v>
+      </c>
       <c r="I175" s="100"/>
-      <c r="J175" s="85"/>
+      <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="88"/>
       <c r="B176" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C176" s="108" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="D176" s="108" t="s">
-        <v>161</v>
-      </c>
-      <c r="E176" s="109">
-        <v>1</v>
+        <v>286</v>
+      </c>
+      <c r="E176" s="109" t="s">
+        <v>254</v>
       </c>
       <c r="F176" s="110">
-        <v>1</v>
-      </c>
-      <c r="G176" s="97" t="s">
-        <v>256</v>
+        <v>2</v>
+      </c>
+      <c r="G176" s="101">
+        <v>44805</v>
       </c>
       <c r="H176" s="101">
-        <v>44805</v>
+        <v>44994</v>
       </c>
       <c r="I176" s="100"/>
-      <c r="J176" s="1"/>
+      <c r="J176" s="85"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="88"/>
       <c r="B177" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C177" s="28" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>287</v>
+        <v>114</v>
       </c>
       <c r="E177" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F177" s="30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G177" s="101">
-        <v>44805</v>
+        <v>44994</v>
       </c>
       <c r="H177" s="100"/>
       <c r="I177" s="100"/>
@@ -7717,22 +7980,22 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="88"/>
       <c r="B178" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E178" s="29">
         <v>3</v>
       </c>
       <c r="F178" s="30">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G178" s="92"/>
       <c r="H178" s="101"/>
@@ -7744,13 +8007,13 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="88"/>
       <c r="B179" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C179" s="108" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D179" s="108" t="s">
         <v>50</v>
@@ -7762,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H179" s="101">
         <v>44805</v>
@@ -7775,22 +8038,22 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="88"/>
       <c r="B180" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C180" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="D180" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="D180" s="28" t="s">
-        <v>295</v>
-      </c>
       <c r="E180" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F180" s="30">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G180" s="101">
         <v>44805</v>
@@ -7804,13 +8067,13 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="88"/>
       <c r="B181" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C181" s="108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D181" s="108" t="s">
         <v>23</v>
@@ -7822,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="G181" s="101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H181" s="101">
         <v>44903</v>
@@ -7835,22 +8098,22 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="88"/>
       <c r="B182" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E182" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F182" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G182" s="101">
         <v>44903</v>
@@ -7864,13 +8127,13 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="88"/>
       <c r="B183" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C183" s="108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D183" s="108" t="s">
         <v>42</v>
@@ -7882,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H183" s="97">
         <v>44805</v>
@@ -7895,19 +8158,19 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="88"/>
       <c r="B184" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C184" s="108" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D184" s="108" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E184" s="109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F184" s="110">
         <v>5</v>
@@ -7926,22 +8189,22 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="88"/>
       <c r="B185" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E185" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F185" s="30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G185" s="97">
         <v>44973</v>
@@ -7955,16 +8218,16 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="88"/>
       <c r="B186" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C186" s="108" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D186" s="108" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E186" s="109">
         <v>1</v>
@@ -7973,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H186" s="97">
         <v>44791</v>
@@ -7986,22 +8249,22 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="88"/>
       <c r="B187" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C187" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E187" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F187" s="30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G187" s="97">
         <v>44791</v>
@@ -8015,7 +8278,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="40"/>
       <c r="C188" s="40"/>
@@ -8026,7 +8289,7 @@
       </c>
       <c r="F188" s="43">
         <f>SUM(F170:F187)-SUM(F167:F169)</f>
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G188" s="89"/>
       <c r="H188" s="102"/>
@@ -8038,7 +8301,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -8055,7 +8318,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8072,14 +8335,14 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="1"/>
@@ -8093,7 +8356,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -8110,7 +8373,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="88"/>
       <c r="B193" s="6" t="s">
         <v>3</v>
@@ -8137,7 +8400,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="88"/>
       <c r="B194" s="12" t="s">
         <v>13</v>
@@ -8150,7 +8413,7 @@
         <v>5</v>
       </c>
       <c r="F194" s="15">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G194" s="89"/>
       <c r="H194" s="104"/>
@@ -8162,7 +8425,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="88"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
@@ -8179,7 +8442,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="88"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -8196,13 +8459,13 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="88"/>
       <c r="B197" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D197" s="28" t="s">
         <v>32</v>
@@ -8223,13 +8486,13 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="88"/>
       <c r="B198" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D198" s="28" t="s">
         <v>57</v>
@@ -8250,7 +8513,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="88"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
@@ -8267,13 +8530,13 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="88"/>
       <c r="B200" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D200" s="28" t="s">
         <v>26</v>
@@ -8294,13 +8557,13 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="88"/>
       <c r="B201" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D201" s="28" t="s">
         <v>23</v>
@@ -8309,7 +8572,7 @@
         <v>8</v>
       </c>
       <c r="F201" s="30">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G201" s="92"/>
       <c r="H201" s="100"/>
@@ -8321,13 +8584,13 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="88"/>
       <c r="B202" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D202" s="28" t="s">
         <v>30</v>
@@ -8336,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G202" s="92"/>
       <c r="H202" s="100"/>
@@ -8348,7 +8611,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="88"/>
       <c r="B203" s="21"/>
       <c r="C203" s="21"/>
@@ -8365,7 +8628,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="88"/>
       <c r="B204" s="21"/>
       <c r="C204" s="21"/>
@@ -8382,13 +8645,13 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="88"/>
       <c r="B205" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D205" s="28" t="s">
         <v>14</v>
@@ -8409,7 +8672,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="88"/>
       <c r="B206" s="28" t="s">
         <v>22</v>
@@ -8424,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="30">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G206" s="97"/>
       <c r="H206" s="100"/>
@@ -8436,22 +8699,22 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="88"/>
       <c r="B207" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C207" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D207" s="28" t="s">
         <v>117</v>
-      </c>
-      <c r="D207" s="28" t="s">
-        <v>118</v>
       </c>
       <c r="E207" s="29">
         <v>10</v>
       </c>
       <c r="F207" s="30">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G207" s="92"/>
       <c r="H207" s="100"/>
@@ -8463,13 +8726,13 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="88"/>
       <c r="B208" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D208" s="28" t="s">
         <v>23</v>
@@ -8490,7 +8753,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="88"/>
       <c r="B209" s="28" t="s">
         <v>22</v>
@@ -8499,13 +8762,13 @@
         <v>51</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E209" s="29">
         <v>5</v>
       </c>
       <c r="F209" s="30">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G209" s="97"/>
       <c r="H209" s="101"/>
@@ -8517,7 +8780,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="88"/>
       <c r="B210" s="28"/>
       <c r="C210" s="28"/>
@@ -8534,7 +8797,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="88"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -8551,7 +8814,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="88"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
@@ -8568,7 +8831,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="88"/>
       <c r="B213" s="21"/>
       <c r="C213" s="21"/>
@@ -8585,7 +8848,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="88"/>
       <c r="B214" s="38"/>
       <c r="C214" s="38"/>
@@ -8602,7 +8865,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="40"/>
       <c r="C215" s="40"/>
@@ -8625,7 +8888,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8642,7 +8905,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8659,14 +8922,14 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="1"/>
@@ -8680,7 +8943,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -8697,7 +8960,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="88"/>
       <c r="B220" s="6" t="s">
         <v>3</v>
@@ -8724,23 +8987,23 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="66"/>
       <c r="B221" s="111" t="s">
         <v>13</v>
       </c>
       <c r="C221" s="119"/>
       <c r="D221" s="111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E221" s="113">
         <v>1</v>
       </c>
       <c r="F221" s="114">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G221" s="89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H221" s="104">
         <v>44959</v>
@@ -8753,7 +9016,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="88"/>
       <c r="B222" s="21" t="s">
         <v>13</v>
@@ -8763,10 +9026,10 @@
         <v>47</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F222" s="21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G222" s="104">
         <v>44959</v>
@@ -8780,7 +9043,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="88"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -8797,22 +9060,22 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="88"/>
       <c r="B224" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C224" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D224" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E224" s="29">
         <v>3</v>
       </c>
       <c r="F224" s="30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G224" s="92"/>
       <c r="H224" s="100"/>
@@ -8824,16 +9087,16 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="88"/>
       <c r="B225" s="108" t="s">
         <v>15</v>
       </c>
       <c r="C225" s="108" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D225" s="108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E225" s="109">
         <v>1</v>
@@ -8842,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="G225" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H225" s="101">
         <v>44875</v>
@@ -8855,22 +9118,22 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="88"/>
       <c r="B226" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E226" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F226" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G226" s="97">
         <v>44875</v>
@@ -8884,16 +9147,16 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="88"/>
       <c r="B227" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C227" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="D227" s="108" t="s">
         <v>195</v>
-      </c>
-      <c r="D227" s="108" t="s">
-        <v>196</v>
       </c>
       <c r="E227" s="109">
         <v>16</v>
@@ -8902,7 +9165,7 @@
         <v>5</v>
       </c>
       <c r="G227" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H227" s="101">
         <v>44952</v>
@@ -8915,22 +9178,22 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="88"/>
       <c r="B228" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C228" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D228" s="28" t="s">
         <v>14</v>
       </c>
       <c r="E228" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F228" s="30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G228" s="97">
         <v>44952</v>
@@ -8944,13 +9207,13 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="88"/>
       <c r="B229" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C229" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D229" s="28" t="s">
         <v>36</v>
@@ -8959,7 +9222,7 @@
         <v>3</v>
       </c>
       <c r="F229" s="30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G229" s="97"/>
       <c r="H229" s="100"/>
@@ -8971,16 +9234,16 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="88"/>
       <c r="B230" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C230" s="108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D230" s="108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E230" s="109">
         <v>6</v>
@@ -8989,7 +9252,7 @@
         <v>1</v>
       </c>
       <c r="G230" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H230" s="101">
         <v>44784</v>
@@ -9002,19 +9265,19 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="88"/>
       <c r="B231" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C231" s="108" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D231" s="108" t="s">
         <v>26</v>
       </c>
       <c r="E231" s="109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F231" s="110">
         <v>2</v>
@@ -9033,22 +9296,22 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="88"/>
       <c r="B232" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C232" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D232" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E232" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F232" s="30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G232" s="97">
         <v>44938</v>
@@ -9062,13 +9325,13 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="88"/>
       <c r="B233" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C233" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D233" s="28" t="s">
         <v>57</v>
@@ -9077,7 +9340,7 @@
         <v>33</v>
       </c>
       <c r="F233" s="30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G233" s="92"/>
       <c r="H233" s="101"/>
@@ -9089,16 +9352,16 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="88"/>
       <c r="B234" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C234" s="108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D234" s="108" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E234" s="109">
         <v>13</v>
@@ -9107,7 +9370,7 @@
         <v>2</v>
       </c>
       <c r="G234" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H234" s="101">
         <v>44812</v>
@@ -9120,22 +9383,22 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="88"/>
       <c r="B235" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C235" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D235" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E235" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F235" s="30">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G235" s="97">
         <v>44812</v>
@@ -9149,16 +9412,16 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="88"/>
       <c r="B236" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C236" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="D236" s="108" t="s">
         <v>224</v>
-      </c>
-      <c r="D236" s="108" t="s">
-        <v>225</v>
       </c>
       <c r="E236" s="109">
         <v>5</v>
@@ -9167,7 +9430,7 @@
         <v>4</v>
       </c>
       <c r="G236" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H236" s="101">
         <v>44875</v>
@@ -9180,27 +9443,29 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="88"/>
-      <c r="B237" s="28" t="s">
+      <c r="B237" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C237" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="D237" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E237" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="F237" s="30">
-        <v>2</v>
+      <c r="C237" s="108" t="s">
+        <v>313</v>
+      </c>
+      <c r="D237" s="108" t="s">
+        <v>173</v>
+      </c>
+      <c r="E237" s="109" t="s">
+        <v>254</v>
+      </c>
+      <c r="F237" s="110">
+        <v>3</v>
       </c>
       <c r="G237" s="97">
         <v>44875</v>
       </c>
-      <c r="H237" s="101"/>
+      <c r="H237" s="101">
+        <v>45001</v>
+      </c>
       <c r="I237" s="99"/>
       <c r="J237" s="85"/>
       <c r="K237" s="1"/>
@@ -9209,29 +9474,27 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="88"/>
-      <c r="B238" s="108" t="s">
+      <c r="B238" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C238" s="108" t="s">
-        <v>157</v>
-      </c>
-      <c r="D238" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="E238" s="109">
-        <v>1</v>
-      </c>
-      <c r="F238" s="110">
-        <v>0</v>
-      </c>
-      <c r="G238" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="H238" s="101">
-        <v>44784</v>
-      </c>
+      <c r="C238" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D238" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E238" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F238" s="30">
+        <v>6</v>
+      </c>
+      <c r="G238" s="97">
+        <v>45001</v>
+      </c>
+      <c r="H238" s="101"/>
       <c r="I238" s="99"/>
       <c r="J238" s="85"/>
       <c r="K238" s="1"/>
@@ -9240,28 +9503,30 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="88"/>
-      <c r="B239" s="28" t="s">
+      <c r="B239" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C239" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="D239" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E239" s="29" t="s">
+      <c r="C239" s="108" t="s">
+        <v>156</v>
+      </c>
+      <c r="D239" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="E239" s="109">
+        <v>1</v>
+      </c>
+      <c r="F239" s="110">
+        <v>0</v>
+      </c>
+      <c r="G239" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="F239" s="30">
-        <v>9</v>
-      </c>
-      <c r="G239" s="97">
+      <c r="H239" s="101">
         <v>44784</v>
       </c>
-      <c r="H239" s="104"/>
-      <c r="I239" s="100"/>
+      <c r="I239" s="99"/>
       <c r="J239" s="85"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
@@ -9269,25 +9534,27 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="88"/>
       <c r="B240" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C240" s="28" t="s">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="D240" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E240" s="29">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="E240" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="F240" s="30">
-        <v>9</v>
-      </c>
-      <c r="G240" s="104"/>
-      <c r="H240" s="100"/>
+        <v>13</v>
+      </c>
+      <c r="G240" s="97">
+        <v>44784</v>
+      </c>
+      <c r="H240" s="104"/>
       <c r="I240" s="100"/>
       <c r="J240" s="85"/>
       <c r="K240" s="1"/>
@@ -9296,14 +9563,24 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="88"/>
-      <c r="B241" s="38"/>
-      <c r="C241" s="38"/>
-      <c r="D241" s="38"/>
-      <c r="E241" s="39"/>
-      <c r="F241" s="38"/>
-      <c r="G241" s="92"/>
+      <c r="B241" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D241" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E241" s="29">
+        <v>1</v>
+      </c>
+      <c r="F241" s="30">
+        <v>10</v>
+      </c>
+      <c r="G241" s="104"/>
       <c r="H241" s="100"/>
       <c r="I241" s="100"/>
       <c r="J241" s="85"/>
@@ -9313,7 +9590,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="40"/>
       <c r="C242" s="40"/>
@@ -9324,7 +9601,7 @@
       </c>
       <c r="F242" s="43">
         <f>SUM(F224:F241)-SUM(F221:F223)</f>
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="G242" s="89"/>
       <c r="H242" s="102"/>
@@ -9336,7 +9613,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9353,7 +9630,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9370,14 +9647,14 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="1"/>
@@ -9391,7 +9668,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -9408,7 +9685,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="88"/>
       <c r="B247" s="6" t="s">
         <v>3</v>
@@ -9427,20 +9704,20 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="88"/>
       <c r="B248" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C248" s="13"/>
       <c r="D248" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E248" s="14">
         <v>4</v>
       </c>
       <c r="F248" s="15">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G248" s="89"/>
       <c r="H248" s="104"/>
@@ -9452,7 +9729,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="88"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -9469,7 +9746,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="88"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -9486,7 +9763,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="88"/>
       <c r="B251" s="28" t="s">
         <v>15</v>
@@ -9501,7 +9778,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G251" s="92"/>
       <c r="H251" s="101"/>
@@ -9513,13 +9790,13 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="88"/>
       <c r="B252" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D252" s="28" t="s">
         <v>71</v>
@@ -9540,7 +9817,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="88"/>
       <c r="B253" s="28"/>
       <c r="C253" s="28"/>
@@ -9557,7 +9834,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="88"/>
       <c r="B254" s="28" t="s">
         <v>18</v>
@@ -9572,7 +9849,7 @@
         <v>39</v>
       </c>
       <c r="F254" s="30">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G254" s="92"/>
       <c r="H254" s="100"/>
@@ -9584,13 +9861,13 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="88"/>
       <c r="B255" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C255" s="108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D255" s="108" t="s">
         <v>72</v>
@@ -9602,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="G255" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H255" s="101">
         <v>44882</v>
@@ -9615,22 +9892,22 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="88"/>
       <c r="B256" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D256" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E256" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F256" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G256" s="101">
         <v>44882</v>
@@ -9644,13 +9921,13 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="88"/>
       <c r="B257" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D257" s="28" t="s">
         <v>39</v>
@@ -9659,7 +9936,7 @@
         <v>10</v>
       </c>
       <c r="F257" s="30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G257" s="97"/>
       <c r="H257" s="100"/>
@@ -9671,7 +9948,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="88"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -9688,22 +9965,22 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="88"/>
       <c r="B259" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C259" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D259" s="28" t="s">
         <v>86</v>
-      </c>
-      <c r="D259" s="28" t="s">
-        <v>87</v>
       </c>
       <c r="E259" s="29">
         <v>1</v>
       </c>
       <c r="F259" s="30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G259" s="92"/>
       <c r="H259" s="100"/>
@@ -9715,13 +9992,13 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="88"/>
       <c r="B260" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D260" s="28" t="s">
         <v>34</v>
@@ -9730,7 +10007,7 @@
         <v>35</v>
       </c>
       <c r="F260" s="30">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G260" s="92"/>
       <c r="H260" s="100"/>
@@ -9742,13 +10019,13 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="88"/>
       <c r="B261" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C261" s="108" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D261" s="108" t="s">
         <v>20</v>
@@ -9760,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="G261" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H261" s="101">
         <v>44784</v>
@@ -9773,19 +10050,19 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="88"/>
       <c r="B262" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C262" s="108" t="s">
+        <v>256</v>
+      </c>
+      <c r="D262" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="D262" s="108" t="s">
-        <v>258</v>
-      </c>
       <c r="E262" s="109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F262" s="110">
         <v>0</v>
@@ -9804,27 +10081,29 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="88"/>
-      <c r="B263" s="28" t="s">
+      <c r="B263" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C263" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="D263" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E263" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="F263" s="30">
+      <c r="C263" s="108" t="s">
+        <v>298</v>
+      </c>
+      <c r="D263" s="108" t="s">
+        <v>167</v>
+      </c>
+      <c r="E263" s="109" t="s">
+        <v>254</v>
+      </c>
+      <c r="F263" s="110">
         <v>0</v>
       </c>
       <c r="G263" s="97">
         <v>44819</v>
       </c>
-      <c r="H263" s="101"/>
+      <c r="H263" s="101">
+        <v>45022</v>
+      </c>
       <c r="I263" s="100"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
@@ -9833,25 +10112,27 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="88"/>
       <c r="B264" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>70</v>
+        <v>365</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E264" s="29">
-        <v>1</v>
+        <v>264</v>
+      </c>
+      <c r="E264" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="F264" s="30">
-        <v>6</v>
-      </c>
-      <c r="G264" s="92"/>
-      <c r="H264" s="100"/>
+        <v>2</v>
+      </c>
+      <c r="G264" s="97">
+        <v>45022</v>
+      </c>
+      <c r="H264" s="101"/>
       <c r="I264" s="100"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
@@ -9860,29 +10141,25 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="88"/>
-      <c r="B265" s="108" t="s">
+      <c r="B265" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C265" s="108" t="s">
-        <v>241</v>
-      </c>
-      <c r="D265" s="108" t="s">
-        <v>168</v>
-      </c>
-      <c r="E265" s="109">
+      <c r="C265" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D265" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E265" s="29">
         <v>1</v>
       </c>
-      <c r="F265" s="110">
-        <v>1</v>
-      </c>
-      <c r="G265" s="97" t="s">
-        <v>256</v>
-      </c>
-      <c r="H265" s="101">
-        <v>44854</v>
-      </c>
+      <c r="F265" s="30">
+        <v>18</v>
+      </c>
+      <c r="G265" s="92"/>
+      <c r="H265" s="100"/>
       <c r="I265" s="100"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
@@ -9891,27 +10168,29 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="88"/>
-      <c r="B266" s="21" t="s">
+      <c r="B266" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C266" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="D266" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E266" s="22" t="s">
+      <c r="C266" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="D266" s="108" t="s">
+        <v>167</v>
+      </c>
+      <c r="E266" s="109">
+        <v>1</v>
+      </c>
+      <c r="F266" s="110">
+        <v>1</v>
+      </c>
+      <c r="G266" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="F266" s="21">
-        <v>2</v>
-      </c>
-      <c r="G266" s="97">
+      <c r="H266" s="101">
         <v>44854</v>
       </c>
-      <c r="H266" s="100"/>
       <c r="I266" s="100"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
@@ -9920,14 +10199,26 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="88"/>
-      <c r="B267" s="21"/>
-      <c r="C267" s="21"/>
-      <c r="D267" s="21"/>
-      <c r="E267" s="22"/>
-      <c r="F267" s="21"/>
-      <c r="G267" s="92"/>
+      <c r="B267" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C267" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D267" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E267" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F267" s="21">
+        <v>5</v>
+      </c>
+      <c r="G267" s="97">
+        <v>44854</v>
+      </c>
       <c r="H267" s="100"/>
       <c r="I267" s="100"/>
       <c r="J267" s="1"/>
@@ -9937,7 +10228,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="88"/>
       <c r="B268" s="38"/>
       <c r="C268" s="38"/>
@@ -9954,7 +10245,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="40"/>
       <c r="C269" s="40"/>
@@ -9965,7 +10256,7 @@
       </c>
       <c r="F269" s="43">
         <f>SUM(F251:F268)-SUM(F248:F250)</f>
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G269" s="89"/>
       <c r="H269" s="102"/>
@@ -9977,7 +10268,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9994,7 +10285,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10011,14 +10302,14 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="1"/>
@@ -10032,7 +10323,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -10049,7 +10340,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="88"/>
       <c r="B274" s="6" t="s">
         <v>3</v>
@@ -10076,20 +10367,20 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="88"/>
       <c r="B275" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E275" s="45">
         <v>1</v>
       </c>
       <c r="F275" s="15">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G275" s="89"/>
       <c r="H275" s="102"/>
@@ -10101,7 +10392,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="88"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
@@ -10118,7 +10409,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="88"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -10135,13 +10426,13 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="88"/>
       <c r="B278" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C278" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D278" s="21" t="s">
         <v>23</v>
@@ -10150,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G278" s="92"/>
       <c r="H278" s="100"/>
@@ -10162,16 +10453,16 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="88"/>
       <c r="B279" s="108" t="s">
         <v>15</v>
       </c>
       <c r="C279" s="116" t="s">
+        <v>189</v>
+      </c>
+      <c r="D279" s="116" t="s">
         <v>190</v>
-      </c>
-      <c r="D279" s="116" t="s">
-        <v>191</v>
       </c>
       <c r="E279" s="117">
         <v>1</v>
@@ -10180,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H279" s="101">
         <v>44812</v>
@@ -10193,22 +10484,22 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="88"/>
       <c r="B280" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C280" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D280" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E280" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F280" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G280" s="97">
         <v>44812</v>
@@ -10222,16 +10513,16 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="88"/>
       <c r="B281" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E281" s="22">
         <v>4</v>
@@ -10249,16 +10540,16 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="88"/>
       <c r="B282" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C282" s="116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D282" s="116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E282" s="117">
         <v>5</v>
@@ -10267,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="G282" s="101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H282" s="101">
         <v>44812</v>
@@ -10280,19 +10571,19 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="88"/>
       <c r="B283" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C283" s="116" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D283" s="116" t="s">
         <v>47</v>
       </c>
       <c r="E283" s="117" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F283" s="110">
         <v>0</v>
@@ -10311,19 +10602,19 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="88"/>
       <c r="B284" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C284" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E284" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F284" s="30">
         <v>0</v>
@@ -10340,13 +10631,13 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="88"/>
       <c r="B285" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C285" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D285" s="21" t="s">
         <v>23</v>
@@ -10367,13 +10658,13 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="88"/>
       <c r="B286" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C286" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D286" s="21" t="s">
         <v>30</v>
@@ -10382,7 +10673,7 @@
         <v>49</v>
       </c>
       <c r="F286" s="30">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G286" s="92"/>
       <c r="H286" s="101"/>
@@ -10394,16 +10685,16 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="88"/>
       <c r="B287" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C287" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="D287" s="116" t="s">
         <v>120</v>
-      </c>
-      <c r="D287" s="116" t="s">
-        <v>121</v>
       </c>
       <c r="E287" s="117">
         <v>3</v>
@@ -10412,7 +10703,7 @@
         <v>3</v>
       </c>
       <c r="G287" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H287" s="101">
         <v>44924</v>
@@ -10425,22 +10716,22 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="88"/>
       <c r="B288" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C288" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E288" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F288" s="30">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G288" s="97">
         <v>44924</v>
@@ -10454,16 +10745,16 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="88"/>
       <c r="B289" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C289" s="116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D289" s="116" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E289" s="117">
         <v>1</v>
@@ -10472,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="G289" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H289" s="101">
         <v>44798</v>
@@ -10485,19 +10776,19 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="88"/>
       <c r="B290" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C290" s="116" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D290" s="116" t="s">
         <v>40</v>
       </c>
       <c r="E290" s="117" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F290" s="110">
         <v>0</v>
@@ -10516,19 +10807,19 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="88"/>
       <c r="B291" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C291" s="116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D291" s="116" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E291" s="117" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F291" s="110">
         <v>2</v>
@@ -10547,22 +10838,22 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="88"/>
       <c r="B292" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C292" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D292" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E292" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F292" s="30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G292" s="97">
         <v>44959</v>
@@ -10576,22 +10867,22 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="88"/>
       <c r="B293" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C293" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E293" s="22">
         <v>17</v>
       </c>
       <c r="F293" s="30">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G293" s="97"/>
       <c r="H293" s="101"/>
@@ -10603,16 +10894,16 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="88"/>
       <c r="B294" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C294" s="116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D294" s="116" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E294" s="117">
         <v>17</v>
@@ -10621,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="G294" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H294" s="101">
         <v>44798</v>
@@ -10634,22 +10925,22 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="88"/>
       <c r="B295" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C295" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D295" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E295" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F295" s="30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G295" s="97">
         <v>44798</v>
@@ -10663,7 +10954,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="40"/>
       <c r="C296" s="40"/>
@@ -10674,7 +10965,7 @@
       </c>
       <c r="F296" s="43">
         <f>SUM(F277:F295)-SUM(F275:F276)</f>
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G296" s="89"/>
       <c r="H296" s="102"/>
@@ -10686,7 +10977,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -10703,7 +10994,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -10720,14 +11011,14 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D299" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="E299" s="2"/>
       <c r="F299" s="1"/>
@@ -10741,7 +11032,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -10758,7 +11049,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="88"/>
       <c r="B301" s="6" t="s">
         <v>3</v>
@@ -10785,14 +11076,14 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="88"/>
       <c r="B302" s="111" t="s">
         <v>13</v>
       </c>
       <c r="C302" s="112"/>
       <c r="D302" s="112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E302" s="115">
         <v>1</v>
@@ -10801,7 +11092,7 @@
         <v>10</v>
       </c>
       <c r="G302" s="89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H302" s="101">
         <v>44791</v>
@@ -10814,17 +11105,17 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="88"/>
       <c r="B303" s="116" t="s">
         <v>13</v>
       </c>
       <c r="C303" s="116"/>
       <c r="D303" s="116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E303" s="117" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F303" s="116">
         <v>4</v>
@@ -10843,20 +11134,20 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="88"/>
       <c r="B304" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C304" s="21"/>
       <c r="D304" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E304" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F304" s="21">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G304" s="97">
         <v>44798</v>
@@ -10870,13 +11161,13 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="88"/>
       <c r="B305" s="108" t="s">
         <v>15</v>
       </c>
       <c r="C305" s="116" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D305" s="116" t="s">
         <v>36</v>
@@ -10888,7 +11179,7 @@
         <v>0</v>
       </c>
       <c r="G305" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H305" s="101">
         <v>44868</v>
@@ -10901,22 +11192,22 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="88"/>
       <c r="B306" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C306" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="E306" s="22">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="E306" s="22" t="s">
+        <v>254</v>
       </c>
       <c r="F306" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G306" s="97">
         <v>44868</v>
@@ -10930,13 +11221,13 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="88"/>
       <c r="B307" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D307" s="21" t="s">
         <v>45</v>
@@ -10957,13 +11248,13 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="88"/>
       <c r="B308" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C308" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D308" s="21" t="s">
         <v>46</v>
@@ -10972,7 +11263,7 @@
         <v>14</v>
       </c>
       <c r="F308" s="30">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G308" s="92"/>
       <c r="H308" s="100"/>
@@ -10984,22 +11275,22 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="88"/>
       <c r="B309" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E309" s="22">
         <v>1</v>
       </c>
       <c r="F309" s="30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G309" s="92"/>
       <c r="H309" s="100"/>
@@ -11011,16 +11302,16 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="88"/>
       <c r="B310" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C310" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="D310" s="116" t="s">
         <v>205</v>
-      </c>
-      <c r="D310" s="116" t="s">
-        <v>206</v>
       </c>
       <c r="E310" s="117">
         <v>1</v>
@@ -11029,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="G310" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H310" s="101">
         <v>44798</v>
@@ -11042,22 +11333,22 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="88"/>
       <c r="B311" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C311" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E311" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F311" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G311" s="97">
         <v>44798</v>
@@ -11071,7 +11362,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="88"/>
       <c r="B312" s="28"/>
       <c r="C312" s="21"/>
@@ -11088,16 +11379,16 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="88"/>
       <c r="B313" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C313" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="D313" s="116" t="s">
         <v>132</v>
-      </c>
-      <c r="D313" s="116" t="s">
-        <v>133</v>
       </c>
       <c r="E313" s="117">
         <v>10</v>
@@ -11106,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="G313" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H313" s="101">
         <v>44861</v>
@@ -11119,22 +11410,22 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="88"/>
       <c r="B314" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C314" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E314" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F314" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G314" s="97">
         <v>44861</v>
@@ -11148,13 +11439,13 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="88"/>
       <c r="B315" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D315" s="21" t="s">
         <v>35</v>
@@ -11163,7 +11454,7 @@
         <v>43</v>
       </c>
       <c r="F315" s="30">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G315" s="92"/>
       <c r="H315" s="100"/>
@@ -11175,13 +11466,13 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="88"/>
       <c r="B316" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C316" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D316" s="21" t="s">
         <v>47</v>
@@ -11190,7 +11481,7 @@
         <v>8</v>
       </c>
       <c r="F316" s="30">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G316" s="92"/>
       <c r="H316" s="100"/>
@@ -11202,13 +11493,13 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="88"/>
       <c r="B317" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C317" s="116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D317" s="116" t="s">
         <v>37</v>
@@ -11220,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="G317" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H317" s="101">
         <v>44798</v>
@@ -11233,22 +11524,22 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="88"/>
       <c r="B318" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C318" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D318" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="D318" s="21" t="s">
-        <v>284</v>
-      </c>
       <c r="E318" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F318" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G318" s="97">
         <v>44798</v>
@@ -11262,13 +11553,13 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="88"/>
       <c r="B319" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C319" s="116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D319" s="116" t="s">
         <v>58</v>
@@ -11280,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="G319" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H319" s="101">
         <v>44791</v>
@@ -11293,22 +11584,22 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="88"/>
       <c r="B320" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C320" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D320" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D320" s="21" t="s">
-        <v>276</v>
-      </c>
       <c r="E320" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F320" s="21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G320" s="97">
         <v>44791</v>
@@ -11322,7 +11613,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="88"/>
       <c r="B321" s="21"/>
       <c r="C321" s="21"/>
@@ -11339,7 +11630,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="88"/>
       <c r="B322" s="38"/>
       <c r="C322" s="38"/>
@@ -11356,18 +11647,18 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="40"/>
       <c r="C323" s="40"/>
       <c r="D323" s="41"/>
       <c r="E323" s="42">
         <f>SUM(E302:E322)</f>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F323" s="43">
         <f>SUM(F305:F322)-SUM(F302:F304)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G323" s="89"/>
       <c r="H323" s="102"/>
@@ -11379,7 +11670,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -11396,7 +11687,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -11413,14 +11704,14 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D326" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E326" s="2"/>
       <c r="F326" s="1"/>
@@ -11434,7 +11725,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -11451,7 +11742,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="88"/>
       <c r="B328" s="6" t="s">
         <v>3</v>
@@ -11478,7 +11769,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="88"/>
       <c r="B329" s="12" t="s">
         <v>13</v>
@@ -11491,7 +11782,7 @@
         <v>2</v>
       </c>
       <c r="F329" s="15">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G329" s="92"/>
       <c r="H329" s="100"/>
@@ -11503,7 +11794,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="88"/>
       <c r="B330" s="21"/>
       <c r="C330" s="21"/>
@@ -11520,7 +11811,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="88"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -11537,22 +11828,22 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="88"/>
       <c r="B332" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C332" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D332" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E332" s="22">
         <v>6</v>
       </c>
       <c r="F332" s="30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G332" s="92"/>
       <c r="H332" s="100"/>
@@ -11564,13 +11855,13 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="88"/>
       <c r="B333" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C333" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D333" s="21" t="s">
         <v>31</v>
@@ -11579,7 +11870,7 @@
         <v>1</v>
       </c>
       <c r="F333" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G333" s="92"/>
       <c r="H333" s="100"/>
@@ -11591,15 +11882,29 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="88"/>
-      <c r="B334" s="21"/>
-      <c r="C334" s="21"/>
-      <c r="D334" s="21"/>
-      <c r="E334" s="22"/>
-      <c r="F334" s="21"/>
-      <c r="G334" s="92"/>
-      <c r="H334" s="100"/>
+      <c r="B334" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C334" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="D334" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="E334" s="117">
+        <v>4</v>
+      </c>
+      <c r="F334" s="110">
+        <v>0</v>
+      </c>
+      <c r="G334" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="H334" s="101">
+        <v>44812</v>
+      </c>
       <c r="I334" s="100"/>
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
@@ -11608,28 +11913,28 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="88"/>
       <c r="B335" s="108" t="s">
         <v>18</v>
       </c>
       <c r="C335" s="116" t="s">
-        <v>106</v>
+        <v>300</v>
       </c>
       <c r="D335" s="116" t="s">
-        <v>127</v>
-      </c>
-      <c r="E335" s="117">
-        <v>4</v>
+        <v>265</v>
+      </c>
+      <c r="E335" s="117" t="s">
+        <v>254</v>
       </c>
       <c r="F335" s="110">
-        <v>0</v>
-      </c>
-      <c r="G335" s="92" t="s">
-        <v>256</v>
+        <v>2</v>
+      </c>
+      <c r="G335" s="97">
+        <v>44812</v>
       </c>
       <c r="H335" s="101">
-        <v>44812</v>
+        <v>44994</v>
       </c>
       <c r="I335" s="100"/>
       <c r="J335" s="1"/>
@@ -11639,25 +11944,25 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="88"/>
       <c r="B336" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C336" s="21" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="E336" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F336" s="30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G336" s="97">
-        <v>44812</v>
+        <v>44994</v>
       </c>
       <c r="H336" s="100"/>
       <c r="I336" s="100"/>
@@ -11668,13 +11973,13 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="88"/>
       <c r="B337" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D337" s="21" t="s">
         <v>42</v>
@@ -11683,7 +11988,7 @@
         <v>9</v>
       </c>
       <c r="F337" s="30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G337" s="92"/>
       <c r="H337" s="100"/>
@@ -11695,25 +12000,29 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="88"/>
-      <c r="B338" s="28" t="s">
+      <c r="B338" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C338" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D338" s="21" t="s">
+      <c r="C338" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="D338" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="E338" s="22">
+      <c r="E338" s="117">
         <v>4</v>
       </c>
-      <c r="F338" s="30">
+      <c r="F338" s="110">
         <v>3</v>
       </c>
-      <c r="G338" s="92"/>
-      <c r="H338" s="100"/>
+      <c r="G338" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="H338" s="101">
+        <v>45022</v>
+      </c>
       <c r="I338" s="100"/>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
@@ -11722,14 +12031,26 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="88"/>
-      <c r="B339" s="28"/>
-      <c r="C339" s="21"/>
-      <c r="D339" s="21"/>
-      <c r="E339" s="22"/>
-      <c r="F339" s="30"/>
-      <c r="G339" s="92"/>
+      <c r="B339" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C339" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="D339" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E339" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F339" s="30">
+        <v>0</v>
+      </c>
+      <c r="G339" s="97">
+        <v>45022</v>
+      </c>
       <c r="H339" s="100"/>
       <c r="I339" s="100"/>
       <c r="J339" s="1"/>
@@ -11739,13 +12060,13 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="88"/>
       <c r="B340" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D340" s="21" t="s">
         <v>72</v>
@@ -11754,7 +12075,7 @@
         <v>2</v>
       </c>
       <c r="F340" s="30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G340" s="92"/>
       <c r="H340" s="100"/>
@@ -11766,16 +12087,16 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="88"/>
       <c r="B341" s="108" t="s">
         <v>22</v>
       </c>
       <c r="C341" s="116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D341" s="116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E341" s="117">
         <v>14</v>
@@ -11784,7 +12105,7 @@
         <v>1</v>
       </c>
       <c r="G341" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H341" s="101">
         <v>44819</v>
@@ -11797,27 +12118,29 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="88"/>
-      <c r="B342" s="28" t="s">
+      <c r="B342" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C342" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="D342" s="21" t="s">
+      <c r="C342" s="116" t="s">
+        <v>299</v>
+      </c>
+      <c r="D342" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E342" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="F342" s="30">
+      <c r="E342" s="117" t="s">
+        <v>254</v>
+      </c>
+      <c r="F342" s="110">
         <v>0</v>
       </c>
       <c r="G342" s="97">
         <v>44819</v>
       </c>
-      <c r="H342" s="100"/>
+      <c r="H342" s="101">
+        <v>44994</v>
+      </c>
       <c r="I342" s="100"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
@@ -11826,25 +12149,29 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="88"/>
-      <c r="B343" s="28" t="s">
+      <c r="B343" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C343" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D343" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E343" s="22">
-        <v>13</v>
-      </c>
-      <c r="F343" s="30">
-        <v>11</v>
-      </c>
-      <c r="G343" s="92"/>
-      <c r="H343" s="100"/>
+      <c r="C343" s="116" t="s">
+        <v>344</v>
+      </c>
+      <c r="D343" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="E343" s="117" t="s">
+        <v>254</v>
+      </c>
+      <c r="F343" s="110">
+        <v>0</v>
+      </c>
+      <c r="G343" s="97">
+        <v>44994</v>
+      </c>
+      <c r="H343" s="101">
+        <v>45022</v>
+      </c>
       <c r="I343" s="100"/>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
@@ -11853,24 +12180,26 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="88"/>
       <c r="B344" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>41</v>
+        <v>362</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E344" s="22">
-        <v>7</v>
+        <v>363</v>
+      </c>
+      <c r="E344" s="22" t="s">
+        <v>254</v>
       </c>
       <c r="F344" s="30">
-        <v>4</v>
-      </c>
-      <c r="G344" s="92"/>
+        <v>3</v>
+      </c>
+      <c r="G344" s="97">
+        <v>45022</v>
+      </c>
       <c r="H344" s="100"/>
       <c r="I344" s="100"/>
       <c r="J344" s="1"/>
@@ -11880,29 +12209,25 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="88"/>
-      <c r="B345" s="108" t="s">
+      <c r="B345" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C345" s="116" t="s">
-        <v>235</v>
-      </c>
-      <c r="D345" s="116" t="s">
-        <v>167</v>
-      </c>
-      <c r="E345" s="117">
-        <v>5</v>
-      </c>
-      <c r="F345" s="110">
-        <v>1</v>
-      </c>
-      <c r="G345" s="92" t="s">
-        <v>256</v>
-      </c>
-      <c r="H345" s="101">
-        <v>44931</v>
-      </c>
+      <c r="C345" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D345" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E345" s="22">
+        <v>13</v>
+      </c>
+      <c r="F345" s="30">
+        <v>16</v>
+      </c>
+      <c r="G345" s="92"/>
+      <c r="H345" s="100"/>
       <c r="I345" s="100"/>
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
@@ -11911,27 +12236,29 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="88"/>
-      <c r="B346" s="21" t="s">
+      <c r="B346" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C346" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="D346" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E346" s="22" t="s">
+      <c r="C346" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="D346" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="E346" s="117">
+        <v>7</v>
+      </c>
+      <c r="F346" s="110">
+        <v>4</v>
+      </c>
+      <c r="G346" s="92" t="s">
         <v>255</v>
       </c>
-      <c r="F346" s="21">
-        <v>4</v>
-      </c>
-      <c r="G346" s="97">
-        <v>44931</v>
-      </c>
-      <c r="H346" s="100"/>
+      <c r="H346" s="101">
+        <v>44994</v>
+      </c>
       <c r="I346" s="100"/>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
@@ -11940,14 +12267,26 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="88"/>
-      <c r="B347" s="21"/>
-      <c r="C347" s="21"/>
-      <c r="D347" s="21"/>
-      <c r="E347" s="22"/>
-      <c r="F347" s="21"/>
-      <c r="G347" s="92"/>
+      <c r="B347" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C347" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="D347" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E347" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F347" s="30">
+        <v>6</v>
+      </c>
+      <c r="G347" s="97">
+        <v>44994</v>
+      </c>
       <c r="H347" s="100"/>
       <c r="I347" s="100"/>
       <c r="J347" s="1"/>
@@ -11957,15 +12296,29 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="88"/>
-      <c r="B348" s="21"/>
-      <c r="C348" s="21"/>
-      <c r="D348" s="21"/>
-      <c r="E348" s="22"/>
-      <c r="F348" s="21"/>
-      <c r="G348" s="92"/>
-      <c r="H348" s="100"/>
+      <c r="B348" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C348" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="D348" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="E348" s="117">
+        <v>5</v>
+      </c>
+      <c r="F348" s="110">
+        <v>1</v>
+      </c>
+      <c r="G348" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="H348" s="101">
+        <v>44931</v>
+      </c>
       <c r="I348" s="100"/>
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
@@ -11974,14 +12327,26 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="88"/>
-      <c r="B349" s="38"/>
-      <c r="C349" s="38"/>
-      <c r="D349" s="38"/>
-      <c r="E349" s="39"/>
-      <c r="F349" s="38"/>
-      <c r="G349" s="92"/>
+      <c r="B349" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C349" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D349" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E349" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F349" s="21">
+        <v>7</v>
+      </c>
+      <c r="G349" s="97">
+        <v>44931</v>
+      </c>
       <c r="H349" s="100"/>
       <c r="I349" s="100"/>
       <c r="J349" s="1"/>
@@ -11991,7 +12356,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="40"/>
       <c r="C350" s="40"/>
@@ -12002,7 +12367,7 @@
       </c>
       <c r="F350" s="43">
         <f>SUM(F332:F349)-SUM(F329:F331)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G350" s="92"/>
       <c r="H350" s="100"/>
@@ -12014,7 +12379,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -12031,6 +12396,309 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
+    <row r="353" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B353" s="1"/>
+      <c r="C353" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E353" s="2"/>
+      <c r="F353" s="1"/>
+    </row>
+    <row r="354" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B354" s="4"/>
+      <c r="C354" s="4"/>
+      <c r="D354" s="4"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="4"/>
+    </row>
+    <row r="355" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B355" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E355" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F355" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B356" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C356" s="13"/>
+      <c r="D356" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E356" s="45">
+        <v>1</v>
+      </c>
+      <c r="F356" s="15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B357" s="21"/>
+      <c r="C357" s="21"/>
+      <c r="D357" s="21"/>
+      <c r="E357" s="22"/>
+      <c r="F357" s="21"/>
+    </row>
+    <row r="358" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B358" s="21"/>
+      <c r="C358" s="21"/>
+      <c r="D358" s="21"/>
+      <c r="E358" s="22"/>
+      <c r="F358" s="21"/>
+    </row>
+    <row r="359" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B359" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C359" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D359" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E359" s="22">
+        <v>1</v>
+      </c>
+      <c r="F359" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B360" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C360" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="D360" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E360" s="22">
+        <v>1</v>
+      </c>
+      <c r="F360" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B361" s="108"/>
+      <c r="C361" s="116"/>
+      <c r="D361" s="116"/>
+      <c r="E361" s="117"/>
+      <c r="F361" s="110"/>
+    </row>
+    <row r="362" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B362" s="108"/>
+      <c r="C362" s="116"/>
+      <c r="D362" s="116"/>
+      <c r="E362" s="117"/>
+      <c r="F362" s="110"/>
+    </row>
+    <row r="363" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C363" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="D363" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E363" s="22">
+        <v>1</v>
+      </c>
+      <c r="F363" s="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C364" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D364" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="E364" s="22">
+        <v>1</v>
+      </c>
+      <c r="F364" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C365" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="D365" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E365" s="22">
+        <v>1</v>
+      </c>
+      <c r="F365" s="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="28"/>
+      <c r="C366" s="21"/>
+      <c r="D366" s="21"/>
+      <c r="E366" s="22"/>
+      <c r="F366" s="30"/>
+    </row>
+    <row r="367" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B367" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C367" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="D367" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="E367" s="22">
+        <v>1</v>
+      </c>
+      <c r="F367" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B368" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C368" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="D368" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E368" s="22">
+        <v>1</v>
+      </c>
+      <c r="F368" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C369" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="D369" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E369" s="22">
+        <v>1</v>
+      </c>
+      <c r="F369" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B370" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C370" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="D370" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E370" s="22">
+        <v>1</v>
+      </c>
+      <c r="F370" s="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B371" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C371" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="D371" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E371" s="22">
+        <v>1</v>
+      </c>
+      <c r="F371" s="30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="372" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B372" s="28"/>
+      <c r="C372" s="21"/>
+      <c r="D372" s="21"/>
+      <c r="E372" s="22"/>
+      <c r="F372" s="30"/>
+    </row>
+    <row r="373" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B373" s="108"/>
+      <c r="C373" s="116"/>
+      <c r="D373" s="116"/>
+      <c r="E373" s="117"/>
+      <c r="F373" s="110"/>
+    </row>
+    <row r="374" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B374" s="28"/>
+      <c r="C374" s="21"/>
+      <c r="D374" s="21"/>
+      <c r="E374" s="22"/>
+      <c r="F374" s="30"/>
+    </row>
+    <row r="375" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B375" s="108"/>
+      <c r="C375" s="116"/>
+      <c r="D375" s="116"/>
+      <c r="E375" s="117"/>
+      <c r="F375" s="110"/>
+    </row>
+    <row r="376" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B376" s="21"/>
+      <c r="C376" s="21"/>
+      <c r="D376" s="21"/>
+      <c r="E376" s="22"/>
+      <c r="F376" s="21"/>
+    </row>
+    <row r="377" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B377" s="40"/>
+      <c r="C377" s="40"/>
+      <c r="D377" s="41"/>
+      <c r="E377" s="42">
+        <f>SUM(E356:E376)</f>
+        <v>11</v>
+      </c>
+      <c r="F377" s="43">
+        <f>SUM(F359:F376)-SUM(F356:F358)</f>
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12040,7 +12708,6 @@
   </headerFooter>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
@@ -12053,21 +12720,21 @@
   <dimension ref="A1:IV22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="B6" sqref="B6:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="1.296875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="46" customWidth="1"/>
     <col min="3" max="3" width="31" style="46" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="35.296875" style="46" customWidth="1"/>
     <col min="5" max="6" width="9" style="46" customWidth="1"/>
     <col min="7" max="7" width="11" style="46" customWidth="1"/>
     <col min="8" max="256" width="9" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -12084,7 +12751,7 @@
       </c>
       <c r="K1" s="49"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -12099,7 +12766,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
@@ -12112,12 +12779,12 @@
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48"/>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
@@ -12127,7 +12794,7 @@
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
     </row>
-    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="48"/>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -12140,7 +12807,7 @@
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
     </row>
-    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="55"/>
       <c r="B6" s="56" t="s">
         <v>3</v>
@@ -12165,307 +12832,307 @@
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
     </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="55"/>
       <c r="B7" s="62">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="E7" s="25">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F7" s="26">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="G7" s="27">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H7" s="60"/>
       <c r="I7" s="49"/>
       <c r="J7" s="49"/>
       <c r="K7" s="61"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="55"/>
       <c r="B8" s="62">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="E8" s="25">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F8" s="26">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="G8" s="27">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H8" s="60"/>
       <c r="I8" s="49"/>
       <c r="J8" s="49"/>
       <c r="K8" s="49"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="55"/>
       <c r="B9" s="62">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9" s="25">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F9" s="26">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="G9" s="27">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H9" s="60"/>
       <c r="I9" s="49"/>
       <c r="J9" s="49"/>
       <c r="K9" s="49"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="55"/>
       <c r="B10" s="62">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>125</v>
-      </c>
       <c r="E10" s="25">
+        <v>64</v>
+      </c>
+      <c r="F10" s="26">
+        <v>111</v>
+      </c>
+      <c r="G10" s="27">
         <v>47</v>
-      </c>
-      <c r="F10" s="26">
-        <v>74</v>
-      </c>
-      <c r="G10" s="27">
-        <v>27</v>
       </c>
       <c r="H10" s="60"/>
       <c r="I10" s="49"/>
       <c r="J10" s="49"/>
       <c r="K10" s="49"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55"/>
       <c r="B11" s="62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="E11" s="25">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F11" s="26">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G11" s="27">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="49"/>
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="55"/>
       <c r="B12" s="62">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E12" s="25">
+        <v>52</v>
+      </c>
+      <c r="F12" s="26">
+        <v>91</v>
+      </c>
+      <c r="G12" s="27">
         <v>39</v>
-      </c>
-      <c r="F12" s="26">
-        <v>67</v>
-      </c>
-      <c r="G12" s="27">
-        <v>28</v>
       </c>
       <c r="H12" s="60"/>
       <c r="I12" s="49"/>
       <c r="J12" s="49"/>
       <c r="K12" s="49"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55"/>
       <c r="B13" s="62">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>269</v>
+        <v>29</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="E13" s="25">
-        <v>37</v>
-      </c>
-      <c r="F13" s="64">
-        <v>70</v>
-      </c>
-      <c r="G13" s="65">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="F13" s="26">
+        <v>97</v>
+      </c>
+      <c r="G13" s="27">
+        <v>46</v>
       </c>
       <c r="H13" s="60"/>
       <c r="I13" s="49"/>
       <c r="J13" s="49"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55"/>
       <c r="B14" s="62">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>251</v>
+        <v>99</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>100</v>
       </c>
       <c r="E14" s="25">
-        <v>28</v>
-      </c>
-      <c r="F14" s="26">
-        <v>74</v>
-      </c>
-      <c r="G14" s="27">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="F14" s="64">
+        <v>114</v>
+      </c>
+      <c r="G14" s="65">
+        <v>67</v>
       </c>
       <c r="H14" s="60"/>
       <c r="I14" s="49"/>
       <c r="J14" s="49"/>
       <c r="K14" s="49"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="55"/>
       <c r="B15" s="62">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="E15" s="25">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F15" s="26">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="G15" s="27">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H15" s="60"/>
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
       <c r="B16" s="62">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>28</v>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="E16" s="25">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F16" s="26">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="G16" s="27">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="H16" s="60"/>
       <c r="I16" s="49"/>
       <c r="J16" s="49"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55"/>
       <c r="B17" s="62">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="E17" s="25">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F17" s="26">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="G17" s="27">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="H17" s="60"/>
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="55"/>
       <c r="B18" s="62">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E18" s="25">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F18" s="26">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G18" s="27">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="H18" s="60"/>
       <c r="I18" s="49"/>
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55"/>
       <c r="B19" s="62">
         <v>13</v>
@@ -12477,20 +13144,20 @@
         <v>53</v>
       </c>
       <c r="E19" s="25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" s="26">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G19" s="27">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H19" s="60"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="55"/>
       <c r="B20" s="67"/>
       <c r="C20" s="3"/>
@@ -12503,7 +13170,7 @@
       <c r="J20" s="49"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
@@ -12516,7 +13183,7 @@
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
@@ -12546,23 +13213,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IW28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="46" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" style="46" customWidth="1"/>
-    <col min="8" max="257" width="8.83203125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="33.296875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="31.296875" style="46" customWidth="1"/>
+    <col min="6" max="7" width="9.296875" style="46" customWidth="1"/>
+    <col min="8" max="257" width="8.796875" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="71" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
@@ -12570,7 +13237,7 @@
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -12578,7 +13245,7 @@
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="72" t="s">
         <v>74</v>
       </c>
@@ -12588,201 +13255,233 @@
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="73">
+        <v>3</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>339</v>
+      </c>
+      <c r="G4" s="121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="77" t="s">
+      <c r="B5" s="79" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="78" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="77">
-        <v>3</v>
-      </c>
-      <c r="E4" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>340</v>
-      </c>
-      <c r="G4" s="78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="79" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="78" t="s">
-        <v>336</v>
-      </c>
-      <c r="D5" s="79">
+      <c r="D5" s="121">
         <v>0</v>
       </c>
       <c r="E5" s="74" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>339</v>
-      </c>
-      <c r="G5" s="77">
+        <v>338</v>
+      </c>
+      <c r="G5" s="73">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" s="79">
+        <v>337</v>
+      </c>
+      <c r="D6" s="121">
         <v>1</v>
       </c>
       <c r="E6" s="74" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="77" t="s">
         <v>337</v>
       </c>
-      <c r="G6" s="77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="76" t="s">
+      <c r="D7" s="73">
+        <v>1</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="76" t="s">
         <v>91</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>338</v>
-      </c>
-      <c r="D7" s="74">
-        <v>1</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>339</v>
-      </c>
-      <c r="G7" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="76" t="s">
-        <v>92</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" s="79">
+        <v>341</v>
+      </c>
+      <c r="D8" s="121">
         <v>-1</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>338</v>
-      </c>
-      <c r="G8" s="77">
+        <v>337</v>
+      </c>
+      <c r="G8" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="76"/>
       <c r="B9" s="74"/>
       <c r="C9" s="74"/>
       <c r="D9" s="78"/>
       <c r="E9" s="79"/>
       <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="70"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="75"/>
       <c r="D10" s="48"/>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="70"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
+        <v>92</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" s="121">
+        <v>0</v>
+      </c>
       <c r="E11" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="77"/>
-      <c r="G11" s="74"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="G11" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="73">
+        <v>4</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="74"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="76" t="s">
-        <v>95</v>
-      </c>
       <c r="B13" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
+        <v>124</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="73">
+        <v>2</v>
+      </c>
       <c r="E13" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="77"/>
-      <c r="G13" s="74"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="77" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
+        <v>95</v>
+      </c>
+      <c r="B14" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>352</v>
+      </c>
+      <c r="D14" s="121">
+        <v>1</v>
+      </c>
       <c r="E14" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="74"/>
-    </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="77" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" s="73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="74"/>
       <c r="C15" s="73"/>
       <c r="D15" s="48"/>
@@ -12790,9 +13489,9 @@
       <c r="F15" s="75"/>
       <c r="G15" s="48"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="72" t="s">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="73"/>
@@ -12800,15 +13499,30 @@
       <c r="F16" s="75"/>
       <c r="G16" s="48"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="74"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>352</v>
+      </c>
+      <c r="D17" s="121">
+        <v>1</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="77" t="s">
+        <v>355</v>
+      </c>
+      <c r="G17" s="73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="74"/>
       <c r="C18" s="73"/>
       <c r="D18" s="73"/>
@@ -12816,7 +13530,7 @@
       <c r="F18" s="75"/>
       <c r="G18" s="48"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="74"/>
       <c r="C19" s="73"/>
       <c r="D19" s="48"/>
@@ -12824,9 +13538,9 @@
       <c r="F19" s="75"/>
       <c r="G19" s="48"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="48"/>
@@ -12834,29 +13548,53 @@
       <c r="F20" s="75"/>
       <c r="G20" s="48"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="79"/>
-    </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="B21" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>368</v>
+      </c>
+      <c r="D21" s="121">
+        <v>1</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="F21" s="77" t="s">
+        <v>367</v>
+      </c>
+      <c r="G21" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="76" t="s">
         <v>305</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="79"/>
-    </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>369</v>
+      </c>
+      <c r="D22" s="121">
+        <v>0</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>370</v>
+      </c>
+      <c r="G22" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
       <c r="D23" s="73"/>
@@ -12864,9 +13602,9 @@
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="74"/>
       <c r="D24" s="73"/>
@@ -12874,18 +13612,30 @@
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="76" t="s">
-        <v>306</v>
-      </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="79"/>
-    </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+      <c r="B25" s="79" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="79">
+        <v>2</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="77" t="s">
+        <v>339</v>
+      </c>
+      <c r="G25" s="74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
       <c r="D26" s="73"/>
@@ -12893,9 +13643,9 @@
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
@@ -12904,8 +13654,10 @@
       <c r="G27" s="48"/>
       <c r="K27" s="118"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="74"/>
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="74" t="s">
+        <v>124</v>
+      </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>

--- a/data/DreamLeague22-23.xlsx
+++ b/data/DreamLeague22-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kelloggcompany-my.sharepoint.com/personal/bryn_coombe_kellogg_com/Documents/Desktop/Dream League/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\git\dreamleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1466" documentId="8_{6F62F577-DFCD-495C-8BE1-5ECDC2DA061C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E3892B-DE1C-4B53-B670-20FC77BA8015}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8C2E10-4F55-41E9-9BFF-CABD482F8764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="371">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1146,51 +1146,6 @@
   </si>
   <si>
     <t>(3 - 1)</t>
-  </si>
-  <si>
-    <t>CHAT GPT</t>
-  </si>
-  <si>
-    <t>PASCAL GROSS</t>
-  </si>
-  <si>
-    <t>ANEL AHMEDHODZIC</t>
-  </si>
-  <si>
-    <t>MANUEL BENSON</t>
-  </si>
-  <si>
-    <t>DEVANTE RODNEY</t>
-  </si>
-  <si>
-    <t>ROCHDALE</t>
-  </si>
-  <si>
-    <t>GUSTAVO HAMER</t>
-  </si>
-  <si>
-    <t>JERRY YATES</t>
-  </si>
-  <si>
-    <t>BLACKPOOL</t>
-  </si>
-  <si>
-    <t>JOSH UMERAH</t>
-  </si>
-  <si>
-    <t>HARTLEPOOL</t>
-  </si>
-  <si>
-    <t>OLI MCBURNIE</t>
-  </si>
-  <si>
-    <t>JAMIE REID</t>
-  </si>
-  <si>
-    <t>LUKE NORRIS</t>
-  </si>
-  <si>
-    <t>ROBOTICS ANONYMOUS</t>
   </si>
 </sst>
 </file>
@@ -3173,29 +3128,29 @@
   <dimension ref="A1:IX377"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A350" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B353" sqref="B353:F377"/>
+      <selection activeCell="B353" sqref="B353:F379"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="86" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="86" customWidth="1"/>
     <col min="2" max="2" width="16" style="86" customWidth="1"/>
-    <col min="3" max="3" width="39.296875" style="86" customWidth="1"/>
-    <col min="4" max="4" width="32.796875" style="86" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" style="86" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="86" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="86" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="86" customWidth="1"/>
     <col min="6" max="6" width="17" style="86" customWidth="1"/>
-    <col min="7" max="8" width="11.296875" style="86" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.69921875" style="86" customWidth="1"/>
-    <col min="10" max="10" width="7.19921875" style="86" customWidth="1"/>
-    <col min="11" max="11" width="25.69921875" style="86" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.296875" style="86" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" style="86" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="86" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="86" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="86" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" style="86" customWidth="1"/>
     <col min="13" max="14" width="12" style="86" customWidth="1"/>
-    <col min="15" max="15" width="10.296875" style="86" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="86" customWidth="1"/>
     <col min="16" max="258" width="9" style="86" customWidth="1"/>
     <col min="259" max="16384" width="9" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3214,7 +3169,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
@@ -3235,7 +3190,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -3252,7 +3207,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="88"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -3289,7 +3244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="88"/>
       <c r="B5" s="111" t="s">
         <v>13</v>
@@ -3333,7 +3288,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="88"/>
       <c r="B6" s="12" t="s">
         <v>13</v>
@@ -3375,7 +3330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="88"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3407,7 +3362,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="88"/>
       <c r="B8" s="28" t="s">
         <v>15</v>
@@ -3448,7 +3403,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="88"/>
       <c r="B9" s="28" t="s">
         <v>15</v>
@@ -3490,7 +3445,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="88"/>
       <c r="B10" s="28" t="s">
         <v>18</v>
@@ -3532,7 +3487,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="88"/>
       <c r="B11" s="108" t="s">
         <v>18</v>
@@ -3578,7 +3533,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="88"/>
       <c r="B12" s="108" t="s">
         <v>18</v>
@@ -3624,7 +3579,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="88"/>
       <c r="B13" s="28" t="s">
         <v>18</v>
@@ -3668,7 +3623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="88"/>
       <c r="B14" s="108" t="s">
         <v>18</v>
@@ -3714,7 +3669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="88"/>
       <c r="B15" s="28" t="s">
         <v>18</v>
@@ -3758,7 +3713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="88"/>
       <c r="B16" s="28" t="s">
         <v>22</v>
@@ -3800,7 +3755,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="88"/>
       <c r="B17" s="108" t="s">
         <v>22</v>
@@ -3846,7 +3801,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="88"/>
       <c r="B18" s="108" t="s">
         <v>22</v>
@@ -3877,7 +3832,7 @@
       <c r="N18" s="36"/>
       <c r="O18" s="37"/>
     </row>
-    <row r="19" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="88"/>
       <c r="B19" s="28" t="s">
         <v>22</v>
@@ -3906,7 +3861,7 @@
       <c r="N19" s="98"/>
       <c r="O19" s="98"/>
     </row>
-    <row r="20" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="88"/>
       <c r="B20" s="28" t="s">
         <v>22</v>
@@ -3933,7 +3888,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="88"/>
       <c r="B21" s="108" t="s">
         <v>22</v>
@@ -3964,7 +3919,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="88"/>
       <c r="B22" s="28" t="s">
         <v>22</v>
@@ -3993,7 +3948,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="88"/>
       <c r="B23" s="108" t="s">
         <v>22</v>
@@ -4024,7 +3979,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="88"/>
       <c r="B24" s="108" t="s">
         <v>22</v>
@@ -4055,7 +4010,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="88"/>
       <c r="B25" s="28" t="s">
         <v>22</v>
@@ -4084,7 +4039,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
@@ -4107,7 +4062,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4124,7 +4079,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4141,7 +4096,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3" t="s">
@@ -4162,7 +4117,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4179,7 +4134,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="88"/>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -4206,7 +4161,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="88"/>
       <c r="B32" s="12" t="s">
         <v>13</v>
@@ -4235,7 +4190,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="88"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -4260,7 +4215,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="88"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4277,7 +4232,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="88"/>
       <c r="B35" s="108" t="s">
         <v>15</v>
@@ -4308,7 +4263,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="88"/>
       <c r="B36" s="28" t="s">
         <v>15</v>
@@ -4337,7 +4292,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="88"/>
       <c r="B37" s="28" t="s">
         <v>15</v>
@@ -4364,7 +4319,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="88"/>
       <c r="B38" s="108" t="s">
         <v>18</v>
@@ -4395,7 +4350,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="88"/>
       <c r="B39" s="28" t="s">
         <v>18</v>
@@ -4424,7 +4379,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="88"/>
       <c r="B40" s="28" t="s">
         <v>18</v>
@@ -4451,7 +4406,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="88"/>
       <c r="B41" s="28" t="s">
         <v>18</v>
@@ -4478,7 +4433,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="88"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -4495,7 +4450,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="88"/>
       <c r="B43" s="108" t="s">
         <v>22</v>
@@ -4526,7 +4481,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="88"/>
       <c r="B44" s="108" t="s">
         <v>22</v>
@@ -4557,7 +4512,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="88"/>
       <c r="B45" s="28" t="s">
         <v>22</v>
@@ -4586,7 +4541,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="88"/>
       <c r="B46" s="28" t="s">
         <v>22</v>
@@ -4615,7 +4570,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="88"/>
       <c r="B47" s="28" t="s">
         <v>22</v>
@@ -4642,7 +4597,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="88"/>
       <c r="B48" s="108" t="s">
         <v>22</v>
@@ -4673,7 +4628,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="88"/>
       <c r="B49" s="28" t="s">
         <v>22</v>
@@ -4702,7 +4657,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="88"/>
       <c r="B50" s="108" t="s">
         <v>22</v>
@@ -4733,7 +4688,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="88"/>
       <c r="B51" s="28" t="s">
         <v>22</v>
@@ -4762,7 +4717,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="88"/>
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
@@ -4779,7 +4734,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
@@ -4802,7 +4757,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4819,7 +4774,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4836,7 +4791,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="3" t="s">
@@ -4857,7 +4812,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -4874,7 +4829,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="88"/>
       <c r="B58" s="6" t="s">
         <v>3</v>
@@ -4901,7 +4856,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="88"/>
       <c r="B59" s="12" t="s">
         <v>13</v>
@@ -4926,7 +4881,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="88"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -4943,7 +4898,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="88"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -4960,7 +4915,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="88"/>
       <c r="B62" s="28" t="s">
         <v>15</v>
@@ -4987,7 +4942,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="88"/>
       <c r="B63" s="108" t="s">
         <v>15</v>
@@ -5018,7 +4973,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="88"/>
       <c r="B64" s="28" t="s">
         <v>15</v>
@@ -5047,7 +5002,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="88"/>
       <c r="B65" s="28" t="s">
         <v>18</v>
@@ -5074,7 +5029,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="88"/>
       <c r="B66" s="108" t="s">
         <v>18</v>
@@ -5105,7 +5060,7 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="88"/>
       <c r="B67" s="28" t="s">
         <v>18</v>
@@ -5134,7 +5089,7 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="88"/>
       <c r="B68" s="108" t="s">
         <v>18</v>
@@ -5165,7 +5120,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="88"/>
       <c r="B69" s="116" t="s">
         <v>18</v>
@@ -5196,7 +5151,7 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="88"/>
       <c r="B70" s="28" t="s">
         <v>18</v>
@@ -5225,7 +5180,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="88"/>
       <c r="B71" s="108" t="s">
         <v>22</v>
@@ -5256,7 +5211,7 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="88"/>
       <c r="B72" s="28" t="s">
         <v>22</v>
@@ -5285,7 +5240,7 @@
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="88"/>
       <c r="B73" s="28" t="s">
         <v>22</v>
@@ -5312,7 +5267,7 @@
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
     </row>
-    <row r="74" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="88"/>
       <c r="B74" s="28" t="s">
         <v>22</v>
@@ -5339,7 +5294,7 @@
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
     </row>
-    <row r="75" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="88"/>
       <c r="B75" s="108" t="s">
         <v>22</v>
@@ -5370,7 +5325,7 @@
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
     </row>
-    <row r="76" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="88"/>
       <c r="B76" s="108" t="s">
         <v>22</v>
@@ -5401,7 +5356,7 @@
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
     </row>
-    <row r="77" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="88"/>
       <c r="B77" s="108" t="s">
         <v>22</v>
@@ -5432,7 +5387,7 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
     </row>
-    <row r="78" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="88"/>
       <c r="B78" s="28" t="s">
         <v>22</v>
@@ -5461,7 +5416,7 @@
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
     </row>
-    <row r="79" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="88"/>
       <c r="B79" s="28" t="s">
         <v>22</v>
@@ -5488,7 +5443,7 @@
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
     </row>
-    <row r="80" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="40"/>
       <c r="C80" s="40"/>
@@ -5511,7 +5466,7 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5528,7 +5483,7 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5545,7 +5500,7 @@
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
     </row>
-    <row r="83" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
@@ -5566,7 +5521,7 @@
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
     </row>
-    <row r="84" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -5583,7 +5538,7 @@
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
     </row>
-    <row r="85" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="88"/>
       <c r="B85" s="6" t="s">
         <v>3</v>
@@ -5610,7 +5565,7 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
     </row>
-    <row r="86" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="88"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
@@ -5635,7 +5590,7 @@
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="88"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -5652,7 +5607,7 @@
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="88"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -5669,7 +5624,7 @@
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="88"/>
       <c r="B89" s="28" t="s">
         <v>15</v>
@@ -5696,7 +5651,7 @@
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="88"/>
       <c r="B90" s="28" t="s">
         <v>15</v>
@@ -5723,7 +5678,7 @@
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="88"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -5740,7 +5695,7 @@
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="88"/>
       <c r="B92" s="28" t="s">
         <v>18</v>
@@ -5767,7 +5722,7 @@
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="88"/>
       <c r="B93" s="108" t="s">
         <v>18</v>
@@ -5798,7 +5753,7 @@
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="88"/>
       <c r="B94" s="28" t="s">
         <v>18</v>
@@ -5827,7 +5782,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="88"/>
       <c r="B95" s="108" t="s">
         <v>18</v>
@@ -5858,7 +5813,7 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="88"/>
       <c r="B96" s="28" t="s">
         <v>18</v>
@@ -5887,7 +5842,7 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="88"/>
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
@@ -5904,7 +5859,7 @@
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="88"/>
       <c r="B98" s="28" t="s">
         <v>22</v>
@@ -5931,7 +5886,7 @@
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="88"/>
       <c r="B99" s="28" t="s">
         <v>22</v>
@@ -5958,7 +5913,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="88"/>
       <c r="B100" s="108" t="s">
         <v>22</v>
@@ -5989,7 +5944,7 @@
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
-    <row r="101" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="88"/>
       <c r="B101" s="108" t="s">
         <v>22</v>
@@ -6020,7 +5975,7 @@
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="88"/>
       <c r="B102" s="28" t="s">
         <v>22</v>
@@ -6049,7 +6004,7 @@
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="88"/>
       <c r="B103" s="108" t="s">
         <v>22</v>
@@ -6080,7 +6035,7 @@
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="88"/>
       <c r="B104" s="28" t="s">
         <v>22</v>
@@ -6109,7 +6064,7 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="88"/>
       <c r="B105" s="108" t="s">
         <v>22</v>
@@ -6140,7 +6095,7 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="88"/>
       <c r="B106" s="28" t="s">
         <v>22</v>
@@ -6169,7 +6124,7 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="40"/>
       <c r="C107" s="40"/>
@@ -6192,7 +6147,7 @@
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6209,7 +6164,7 @@
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6226,7 +6181,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
@@ -6247,7 +6202,7 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -6264,7 +6219,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="88"/>
       <c r="B112" s="6" t="s">
         <v>3</v>
@@ -6291,7 +6246,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="88"/>
       <c r="B113" s="111" t="s">
         <v>13</v>
@@ -6320,7 +6275,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="88"/>
       <c r="B114" s="111" t="s">
         <v>13</v>
@@ -6349,7 +6304,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="88"/>
       <c r="B115" s="21" t="s">
         <v>13</v>
@@ -6376,7 +6331,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="88"/>
       <c r="B116" s="108" t="s">
         <v>15</v>
@@ -6407,7 +6362,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="88"/>
       <c r="B117" s="28" t="s">
         <v>15</v>
@@ -6436,7 +6391,7 @@
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="88"/>
       <c r="B118" s="28" t="s">
         <v>15</v>
@@ -6463,7 +6418,7 @@
       <c r="N118" s="1"/>
       <c r="O118" s="1"/>
     </row>
-    <row r="119" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="88"/>
       <c r="B119" s="108" t="s">
         <v>18</v>
@@ -6494,7 +6449,7 @@
       <c r="N119" s="1"/>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="88"/>
       <c r="B120" s="108" t="s">
         <v>18</v>
@@ -6525,7 +6480,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="88"/>
       <c r="B121" s="28" t="s">
         <v>18</v>
@@ -6554,7 +6509,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="88"/>
       <c r="B122" s="28" t="s">
         <v>18</v>
@@ -6581,7 +6536,7 @@
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="88"/>
       <c r="B123" s="28" t="s">
         <v>18</v>
@@ -6608,7 +6563,7 @@
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
     </row>
-    <row r="124" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="88"/>
       <c r="B124" s="28" t="s">
         <v>22</v>
@@ -6635,7 +6590,7 @@
       <c r="N124" s="1"/>
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="88"/>
       <c r="B125" s="28" t="s">
         <v>22</v>
@@ -6662,7 +6617,7 @@
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="88"/>
       <c r="B126" s="108" t="s">
         <v>22</v>
@@ -6693,7 +6648,7 @@
       <c r="N126" s="1"/>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="88"/>
       <c r="B127" s="28" t="s">
         <v>22</v>
@@ -6722,7 +6677,7 @@
       <c r="N127" s="1"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="88"/>
       <c r="B128" s="108" t="s">
         <v>22</v>
@@ -6753,7 +6708,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="88"/>
       <c r="B129" s="108" t="s">
         <v>22</v>
@@ -6784,7 +6739,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="88"/>
       <c r="B130" s="28" t="s">
         <v>22</v>
@@ -6813,7 +6768,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="88"/>
       <c r="B131" s="108" t="s">
         <v>22</v>
@@ -6844,7 +6799,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="88"/>
       <c r="B132" s="108" t="s">
         <v>22</v>
@@ -6875,7 +6830,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="88"/>
       <c r="B133" s="21" t="s">
         <v>22</v>
@@ -6904,7 +6859,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="40"/>
       <c r="C134" s="40"/>
@@ -6927,7 +6882,7 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6944,7 +6899,7 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6961,7 +6916,7 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="3" t="s">
@@ -6982,7 +6937,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -6999,7 +6954,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="88"/>
       <c r="B139" s="6" t="s">
         <v>3</v>
@@ -7026,7 +6981,7 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="88"/>
       <c r="B140" s="12" t="s">
         <v>13</v>
@@ -7051,7 +7006,7 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="88"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -7068,7 +7023,7 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="88"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -7085,7 +7040,7 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="88"/>
       <c r="B143" s="28" t="s">
         <v>15</v>
@@ -7112,7 +7067,7 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="88"/>
       <c r="B144" s="28" t="s">
         <v>15</v>
@@ -7139,7 +7094,7 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="88"/>
       <c r="B145" s="28"/>
       <c r="C145" s="21"/>
@@ -7156,7 +7111,7 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="88"/>
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
@@ -7173,7 +7128,7 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="88"/>
       <c r="B147" s="28" t="s">
         <v>18</v>
@@ -7200,7 +7155,7 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="88"/>
       <c r="B148" s="108" t="s">
         <v>18</v>
@@ -7231,7 +7186,7 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="88"/>
       <c r="B149" s="28" t="s">
         <v>18</v>
@@ -7260,7 +7215,7 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="88"/>
       <c r="B150" s="28" t="s">
         <v>18</v>
@@ -7287,7 +7242,7 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="88"/>
       <c r="B151" s="108" t="s">
         <v>22</v>
@@ -7318,7 +7273,7 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="88"/>
       <c r="B152" s="28" t="s">
         <v>22</v>
@@ -7347,7 +7302,7 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="88"/>
       <c r="B153" s="28" t="s">
         <v>22</v>
@@ -7374,7 +7329,7 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="88"/>
       <c r="B154" s="28" t="s">
         <v>22</v>
@@ -7401,7 +7356,7 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="88"/>
       <c r="B155" s="28" t="s">
         <v>22</v>
@@ -7428,7 +7383,7 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="88"/>
       <c r="B156" s="108" t="s">
         <v>22</v>
@@ -7459,7 +7414,7 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="88"/>
       <c r="B157" s="108" t="s">
         <v>22</v>
@@ -7490,7 +7445,7 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="88"/>
       <c r="B158" s="21" t="s">
         <v>22</v>
@@ -7519,7 +7474,7 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="88"/>
       <c r="B159" s="21"/>
       <c r="C159" s="21"/>
@@ -7536,7 +7491,7 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="88"/>
       <c r="B160" s="38"/>
       <c r="C160" s="38"/>
@@ -7553,7 +7508,7 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="40"/>
       <c r="C161" s="40"/>
@@ -7576,7 +7531,7 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7593,7 +7548,7 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7610,7 +7565,7 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3" t="s">
@@ -7631,7 +7586,7 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -7648,7 +7603,7 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="88"/>
       <c r="B166" s="6" t="s">
         <v>3</v>
@@ -7675,7 +7630,7 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
     </row>
-    <row r="167" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="88"/>
       <c r="B167" s="111" t="s">
         <v>13</v>
@@ -7704,7 +7659,7 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
     </row>
-    <row r="168" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="88"/>
       <c r="B168" s="21" t="s">
         <v>13</v>
@@ -7731,7 +7686,7 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="88"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -7748,7 +7703,7 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
     </row>
-    <row r="170" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="88"/>
       <c r="B170" s="28" t="s">
         <v>15</v>
@@ -7775,7 +7730,7 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="88"/>
       <c r="B171" s="28" t="s">
         <v>15</v>
@@ -7802,7 +7757,7 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="88"/>
       <c r="B172" s="28" t="s">
         <v>18</v>
@@ -7829,7 +7784,7 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
     </row>
-    <row r="173" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="88"/>
       <c r="B173" s="108" t="s">
         <v>18</v>
@@ -7860,7 +7815,7 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
     </row>
-    <row r="174" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="88"/>
       <c r="B174" s="28" t="s">
         <v>18</v>
@@ -7889,7 +7844,7 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="88"/>
       <c r="B175" s="108" t="s">
         <v>18</v>
@@ -7920,7 +7875,7 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
     </row>
-    <row r="176" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="88"/>
       <c r="B176" s="108" t="s">
         <v>18</v>
@@ -7951,7 +7906,7 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="88"/>
       <c r="B177" s="28" t="s">
         <v>18</v>
@@ -7980,7 +7935,7 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="88"/>
       <c r="B178" s="28" t="s">
         <v>22</v>
@@ -8007,7 +7962,7 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="88"/>
       <c r="B179" s="108" t="s">
         <v>22</v>
@@ -8038,7 +7993,7 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
-    <row r="180" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="88"/>
       <c r="B180" s="28" t="s">
         <v>22</v>
@@ -8067,7 +8022,7 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
-    <row r="181" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="88"/>
       <c r="B181" s="108" t="s">
         <v>22</v>
@@ -8098,7 +8053,7 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
-    <row r="182" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="88"/>
       <c r="B182" s="28" t="s">
         <v>22</v>
@@ -8127,7 +8082,7 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
-    <row r="183" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="88"/>
       <c r="B183" s="108" t="s">
         <v>22</v>
@@ -8158,7 +8113,7 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
-    <row r="184" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="88"/>
       <c r="B184" s="108" t="s">
         <v>22</v>
@@ -8189,7 +8144,7 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="88"/>
       <c r="B185" s="28" t="s">
         <v>22</v>
@@ -8218,7 +8173,7 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
-    <row r="186" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="88"/>
       <c r="B186" s="108" t="s">
         <v>22</v>
@@ -8249,7 +8204,7 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="88"/>
       <c r="B187" s="28" t="s">
         <v>22</v>
@@ -8278,7 +8233,7 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
     </row>
-    <row r="188" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="40"/>
       <c r="C188" s="40"/>
@@ -8301,7 +8256,7 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
     </row>
-    <row r="189" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -8318,7 +8273,7 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
     </row>
-    <row r="190" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -8335,7 +8290,7 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
     </row>
-    <row r="191" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="3" t="s">
@@ -8356,7 +8311,7 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
     </row>
-    <row r="192" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -8373,7 +8328,7 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="88"/>
       <c r="B193" s="6" t="s">
         <v>3</v>
@@ -8400,7 +8355,7 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
     </row>
-    <row r="194" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="88"/>
       <c r="B194" s="12" t="s">
         <v>13</v>
@@ -8425,7 +8380,7 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="88"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
@@ -8442,7 +8397,7 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="88"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -8459,7 +8414,7 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="88"/>
       <c r="B197" s="28" t="s">
         <v>15</v>
@@ -8486,7 +8441,7 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="88"/>
       <c r="B198" s="28" t="s">
         <v>15</v>
@@ -8513,7 +8468,7 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="88"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
@@ -8530,7 +8485,7 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="88"/>
       <c r="B200" s="28" t="s">
         <v>18</v>
@@ -8557,7 +8512,7 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="88"/>
       <c r="B201" s="28" t="s">
         <v>18</v>
@@ -8584,7 +8539,7 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="88"/>
       <c r="B202" s="28" t="s">
         <v>18</v>
@@ -8611,7 +8566,7 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="88"/>
       <c r="B203" s="21"/>
       <c r="C203" s="21"/>
@@ -8628,7 +8583,7 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="88"/>
       <c r="B204" s="21"/>
       <c r="C204" s="21"/>
@@ -8645,7 +8600,7 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="88"/>
       <c r="B205" s="28" t="s">
         <v>22</v>
@@ -8672,7 +8627,7 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="88"/>
       <c r="B206" s="28" t="s">
         <v>22</v>
@@ -8699,7 +8654,7 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="88"/>
       <c r="B207" s="28" t="s">
         <v>22</v>
@@ -8726,7 +8681,7 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
-    <row r="208" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="88"/>
       <c r="B208" s="28" t="s">
         <v>22</v>
@@ -8753,7 +8708,7 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
-    <row r="209" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="88"/>
       <c r="B209" s="28" t="s">
         <v>22</v>
@@ -8780,7 +8735,7 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
-    <row r="210" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="88"/>
       <c r="B210" s="28"/>
       <c r="C210" s="28"/>
@@ -8797,7 +8752,7 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
-    <row r="211" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="88"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
@@ -8814,7 +8769,7 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
     </row>
-    <row r="212" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="88"/>
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
@@ -8831,7 +8786,7 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="88"/>
       <c r="B213" s="21"/>
       <c r="C213" s="21"/>
@@ -8848,7 +8803,7 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="88"/>
       <c r="B214" s="38"/>
       <c r="C214" s="38"/>
@@ -8865,7 +8820,7 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="40"/>
       <c r="C215" s="40"/>
@@ -8888,7 +8843,7 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
-    <row r="216" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8905,7 +8860,7 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
-    <row r="217" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8922,7 +8877,7 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="3" t="s">
@@ -8943,7 +8898,7 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
-    <row r="219" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -8960,7 +8915,7 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="88"/>
       <c r="B220" s="6" t="s">
         <v>3</v>
@@ -8987,7 +8942,7 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
-    <row r="221" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="66"/>
       <c r="B221" s="111" t="s">
         <v>13</v>
@@ -9016,7 +8971,7 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="88"/>
       <c r="B222" s="21" t="s">
         <v>13</v>
@@ -9043,7 +8998,7 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
-    <row r="223" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="88"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -9060,7 +9015,7 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="88"/>
       <c r="B224" s="28" t="s">
         <v>15</v>
@@ -9087,7 +9042,7 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
-    <row r="225" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="88"/>
       <c r="B225" s="108" t="s">
         <v>15</v>
@@ -9118,7 +9073,7 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="88"/>
       <c r="B226" s="21" t="s">
         <v>15</v>
@@ -9147,7 +9102,7 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
-    <row r="227" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="88"/>
       <c r="B227" s="108" t="s">
         <v>18</v>
@@ -9178,7 +9133,7 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="88"/>
       <c r="B228" s="28" t="s">
         <v>18</v>
@@ -9207,7 +9162,7 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
-    <row r="229" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="88"/>
       <c r="B229" s="28" t="s">
         <v>18</v>
@@ -9234,7 +9189,7 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
     </row>
-    <row r="230" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="88"/>
       <c r="B230" s="108" t="s">
         <v>18</v>
@@ -9265,7 +9220,7 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
     </row>
-    <row r="231" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="88"/>
       <c r="B231" s="108" t="s">
         <v>18</v>
@@ -9296,7 +9251,7 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="88"/>
       <c r="B232" s="28" t="s">
         <v>18</v>
@@ -9325,7 +9280,7 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
     </row>
-    <row r="233" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="88"/>
       <c r="B233" s="28" t="s">
         <v>22</v>
@@ -9352,7 +9307,7 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="88"/>
       <c r="B234" s="108" t="s">
         <v>22</v>
@@ -9383,7 +9338,7 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
     </row>
-    <row r="235" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="88"/>
       <c r="B235" s="28" t="s">
         <v>22</v>
@@ -9412,7 +9367,7 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="88"/>
       <c r="B236" s="108" t="s">
         <v>22</v>
@@ -9443,7 +9398,7 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
     </row>
-    <row r="237" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="88"/>
       <c r="B237" s="108" t="s">
         <v>22</v>
@@ -9474,7 +9429,7 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="88"/>
       <c r="B238" s="28" t="s">
         <v>22</v>
@@ -9503,7 +9458,7 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
     </row>
-    <row r="239" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="88"/>
       <c r="B239" s="108" t="s">
         <v>22</v>
@@ -9534,7 +9489,7 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
     </row>
-    <row r="240" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="88"/>
       <c r="B240" s="28" t="s">
         <v>22</v>
@@ -9563,7 +9518,7 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
     </row>
-    <row r="241" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="88"/>
       <c r="B241" s="28" t="s">
         <v>22</v>
@@ -9590,7 +9545,7 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
     </row>
-    <row r="242" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="40"/>
       <c r="C242" s="40"/>
@@ -9613,7 +9568,7 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -9630,7 +9585,7 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -9647,7 +9602,7 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="3" t="s">
@@ -9668,7 +9623,7 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
     </row>
-    <row r="246" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -9685,7 +9640,7 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="88"/>
       <c r="B247" s="6" t="s">
         <v>3</v>
@@ -9704,7 +9659,7 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
     </row>
-    <row r="248" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="88"/>
       <c r="B248" s="12" t="s">
         <v>13</v>
@@ -9729,7 +9684,7 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="88"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -9746,7 +9701,7 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
     </row>
-    <row r="250" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="88"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -9763,7 +9718,7 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
     </row>
-    <row r="251" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="88"/>
       <c r="B251" s="28" t="s">
         <v>15</v>
@@ -9790,7 +9745,7 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
     </row>
-    <row r="252" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="88"/>
       <c r="B252" s="28" t="s">
         <v>15</v>
@@ -9817,7 +9772,7 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="88"/>
       <c r="B253" s="28"/>
       <c r="C253" s="28"/>
@@ -9834,7 +9789,7 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="88"/>
       <c r="B254" s="28" t="s">
         <v>18</v>
@@ -9861,7 +9816,7 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="88"/>
       <c r="B255" s="108" t="s">
         <v>18</v>
@@ -9892,7 +9847,7 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
     </row>
-    <row r="256" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="88"/>
       <c r="B256" s="28" t="s">
         <v>18</v>
@@ -9921,7 +9876,7 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
     </row>
-    <row r="257" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="88"/>
       <c r="B257" s="28" t="s">
         <v>18</v>
@@ -9948,7 +9903,7 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
     </row>
-    <row r="258" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="88"/>
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
@@ -9965,7 +9920,7 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
     </row>
-    <row r="259" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="88"/>
       <c r="B259" s="28" t="s">
         <v>22</v>
@@ -9992,7 +9947,7 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="88"/>
       <c r="B260" s="28" t="s">
         <v>22</v>
@@ -10019,7 +9974,7 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="88"/>
       <c r="B261" s="108" t="s">
         <v>22</v>
@@ -10050,7 +10005,7 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="88"/>
       <c r="B262" s="108" t="s">
         <v>22</v>
@@ -10081,7 +10036,7 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
     </row>
-    <row r="263" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="88"/>
       <c r="B263" s="108" t="s">
         <v>22</v>
@@ -10112,7 +10067,7 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
     </row>
-    <row r="264" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="88"/>
       <c r="B264" s="28" t="s">
         <v>22</v>
@@ -10141,7 +10096,7 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
     </row>
-    <row r="265" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="88"/>
       <c r="B265" s="28" t="s">
         <v>22</v>
@@ -10168,7 +10123,7 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="88"/>
       <c r="B266" s="108" t="s">
         <v>22</v>
@@ -10199,7 +10154,7 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
     </row>
-    <row r="267" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="88"/>
       <c r="B267" s="21" t="s">
         <v>22</v>
@@ -10228,7 +10183,7 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="88"/>
       <c r="B268" s="38"/>
       <c r="C268" s="38"/>
@@ -10245,7 +10200,7 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
     </row>
-    <row r="269" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="40"/>
       <c r="C269" s="40"/>
@@ -10268,7 +10223,7 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -10285,7 +10240,7 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
     </row>
-    <row r="271" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -10302,7 +10257,7 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1" t="s">
@@ -10323,7 +10278,7 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
     </row>
-    <row r="273" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -10340,7 +10295,7 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="88"/>
       <c r="B274" s="6" t="s">
         <v>3</v>
@@ -10367,7 +10322,7 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
     </row>
-    <row r="275" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="88"/>
       <c r="B275" s="12" t="s">
         <v>13</v>
@@ -10392,7 +10347,7 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="88"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
@@ -10409,7 +10364,7 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
     </row>
-    <row r="277" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="88"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -10426,7 +10381,7 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
     </row>
-    <row r="278" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="88"/>
       <c r="B278" s="28" t="s">
         <v>15</v>
@@ -10453,7 +10408,7 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
     </row>
-    <row r="279" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="88"/>
       <c r="B279" s="108" t="s">
         <v>15</v>
@@ -10484,7 +10439,7 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="88"/>
       <c r="B280" s="21" t="s">
         <v>15</v>
@@ -10513,7 +10468,7 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="88"/>
       <c r="B281" s="28" t="s">
         <v>18</v>
@@ -10540,7 +10495,7 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="88"/>
       <c r="B282" s="108" t="s">
         <v>18</v>
@@ -10571,7 +10526,7 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="88"/>
       <c r="B283" s="108" t="s">
         <v>18</v>
@@ -10602,7 +10557,7 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
     </row>
-    <row r="284" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="88"/>
       <c r="B284" s="28" t="s">
         <v>18</v>
@@ -10631,7 +10586,7 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
     </row>
-    <row r="285" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="88"/>
       <c r="B285" s="28" t="s">
         <v>18</v>
@@ -10658,7 +10613,7 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
     </row>
-    <row r="286" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="88"/>
       <c r="B286" s="28" t="s">
         <v>22</v>
@@ -10685,7 +10640,7 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="88"/>
       <c r="B287" s="108" t="s">
         <v>22</v>
@@ -10716,7 +10671,7 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
     </row>
-    <row r="288" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="88"/>
       <c r="B288" s="28" t="s">
         <v>22</v>
@@ -10745,7 +10700,7 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="88"/>
       <c r="B289" s="108" t="s">
         <v>22</v>
@@ -10776,7 +10731,7 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
     </row>
-    <row r="290" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="88"/>
       <c r="B290" s="108" t="s">
         <v>22</v>
@@ -10807,7 +10762,7 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="88"/>
       <c r="B291" s="108" t="s">
         <v>22</v>
@@ -10838,7 +10793,7 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
     </row>
-    <row r="292" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="88"/>
       <c r="B292" s="28" t="s">
         <v>22</v>
@@ -10867,7 +10822,7 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="88"/>
       <c r="B293" s="28" t="s">
         <v>22</v>
@@ -10894,7 +10849,7 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
     </row>
-    <row r="294" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="88"/>
       <c r="B294" s="108" t="s">
         <v>22</v>
@@ -10925,7 +10880,7 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
     </row>
-    <row r="295" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="88"/>
       <c r="B295" s="28" t="s">
         <v>22</v>
@@ -10954,7 +10909,7 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
     </row>
-    <row r="296" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="40"/>
       <c r="C296" s="40"/>
@@ -10977,7 +10932,7 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -10994,7 +10949,7 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
     </row>
-    <row r="298" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -11011,7 +10966,7 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1" t="s">
@@ -11032,7 +10987,7 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
     </row>
-    <row r="300" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -11049,7 +11004,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="88"/>
       <c r="B301" s="6" t="s">
         <v>3</v>
@@ -11076,7 +11031,7 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="88"/>
       <c r="B302" s="111" t="s">
         <v>13</v>
@@ -11105,7 +11060,7 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="88"/>
       <c r="B303" s="116" t="s">
         <v>13</v>
@@ -11134,7 +11089,7 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="88"/>
       <c r="B304" s="21" t="s">
         <v>13</v>
@@ -11161,7 +11116,7 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="88"/>
       <c r="B305" s="108" t="s">
         <v>15</v>
@@ -11192,7 +11147,7 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
     </row>
-    <row r="306" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="88"/>
       <c r="B306" s="28" t="s">
         <v>15</v>
@@ -11221,7 +11176,7 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
     </row>
-    <row r="307" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="88"/>
       <c r="B307" s="28" t="s">
         <v>15</v>
@@ -11248,7 +11203,7 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
     </row>
-    <row r="308" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="88"/>
       <c r="B308" s="28" t="s">
         <v>18</v>
@@ -11275,7 +11230,7 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
     </row>
-    <row r="309" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="88"/>
       <c r="B309" s="28" t="s">
         <v>18</v>
@@ -11302,7 +11257,7 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="88"/>
       <c r="B310" s="108" t="s">
         <v>18</v>
@@ -11333,7 +11288,7 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
     </row>
-    <row r="311" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="88"/>
       <c r="B311" s="28" t="s">
         <v>18</v>
@@ -11362,7 +11317,7 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="88"/>
       <c r="B312" s="28"/>
       <c r="C312" s="21"/>
@@ -11379,7 +11334,7 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
     </row>
-    <row r="313" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="88"/>
       <c r="B313" s="108" t="s">
         <v>22</v>
@@ -11410,7 +11365,7 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
     </row>
-    <row r="314" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="88"/>
       <c r="B314" s="28" t="s">
         <v>22</v>
@@ -11439,7 +11394,7 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
     </row>
-    <row r="315" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="88"/>
       <c r="B315" s="28" t="s">
         <v>22</v>
@@ -11466,7 +11421,7 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="88"/>
       <c r="B316" s="28" t="s">
         <v>22</v>
@@ -11493,7 +11448,7 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="88"/>
       <c r="B317" s="108" t="s">
         <v>22</v>
@@ -11524,7 +11479,7 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="88"/>
       <c r="B318" s="28" t="s">
         <v>22</v>
@@ -11553,7 +11508,7 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
     </row>
-    <row r="319" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="88"/>
       <c r="B319" s="108" t="s">
         <v>22</v>
@@ -11584,7 +11539,7 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
     </row>
-    <row r="320" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="88"/>
       <c r="B320" s="21" t="s">
         <v>22</v>
@@ -11613,7 +11568,7 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
     </row>
-    <row r="321" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="88"/>
       <c r="B321" s="21"/>
       <c r="C321" s="21"/>
@@ -11630,7 +11585,7 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A322" s="88"/>
       <c r="B322" s="38"/>
       <c r="C322" s="38"/>
@@ -11647,7 +11602,7 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
     </row>
-    <row r="323" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="40"/>
       <c r="C323" s="40"/>
@@ -11670,7 +11625,7 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -11687,7 +11642,7 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
     </row>
-    <row r="325" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -11704,7 +11659,7 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
     </row>
-    <row r="326" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1" t="s">
@@ -11725,7 +11680,7 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
     </row>
-    <row r="327" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -11742,7 +11697,7 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="88"/>
       <c r="B328" s="6" t="s">
         <v>3</v>
@@ -11769,7 +11724,7 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="88"/>
       <c r="B329" s="12" t="s">
         <v>13</v>
@@ -11794,7 +11749,7 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="88"/>
       <c r="B330" s="21"/>
       <c r="C330" s="21"/>
@@ -11811,7 +11766,7 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
     </row>
-    <row r="331" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="88"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -11828,7 +11783,7 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
     </row>
-    <row r="332" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="88"/>
       <c r="B332" s="28" t="s">
         <v>15</v>
@@ -11855,7 +11810,7 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
     </row>
-    <row r="333" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="88"/>
       <c r="B333" s="28" t="s">
         <v>15</v>
@@ -11882,7 +11837,7 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
     </row>
-    <row r="334" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="88"/>
       <c r="B334" s="108" t="s">
         <v>18</v>
@@ -11913,7 +11868,7 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
     </row>
-    <row r="335" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="88"/>
       <c r="B335" s="108" t="s">
         <v>18</v>
@@ -11944,7 +11899,7 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="88"/>
       <c r="B336" s="28" t="s">
         <v>18</v>
@@ -11973,7 +11928,7 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="88"/>
       <c r="B337" s="28" t="s">
         <v>18</v>
@@ -12000,7 +11955,7 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="88"/>
       <c r="B338" s="108" t="s">
         <v>18</v>
@@ -12031,7 +11986,7 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
     </row>
-    <row r="339" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="88"/>
       <c r="B339" s="28" t="s">
         <v>18</v>
@@ -12060,7 +12015,7 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
     </row>
-    <row r="340" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="88"/>
       <c r="B340" s="28" t="s">
         <v>22</v>
@@ -12087,7 +12042,7 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
     </row>
-    <row r="341" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="88"/>
       <c r="B341" s="108" t="s">
         <v>22</v>
@@ -12118,7 +12073,7 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="88"/>
       <c r="B342" s="108" t="s">
         <v>22</v>
@@ -12149,7 +12104,7 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
     </row>
-    <row r="343" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="88"/>
       <c r="B343" s="108" t="s">
         <v>22</v>
@@ -12180,7 +12135,7 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="88"/>
       <c r="B344" s="28" t="s">
         <v>22</v>
@@ -12209,7 +12164,7 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
     </row>
-    <row r="345" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="88"/>
       <c r="B345" s="28" t="s">
         <v>22</v>
@@ -12236,7 +12191,7 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="88"/>
       <c r="B346" s="108" t="s">
         <v>22</v>
@@ -12267,7 +12222,7 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="88"/>
       <c r="B347" s="28" t="s">
         <v>22</v>
@@ -12296,7 +12251,7 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="88"/>
       <c r="B348" s="108" t="s">
         <v>22</v>
@@ -12327,7 +12282,7 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
     </row>
-    <row r="349" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" s="88"/>
       <c r="B349" s="21" t="s">
         <v>22</v>
@@ -12356,7 +12311,7 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
     </row>
-    <row r="350" spans="1:15" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="40"/>
       <c r="C350" s="40"/>
@@ -12379,7 +12334,7 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -12396,308 +12351,180 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="353" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="1"/>
-      <c r="C353" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>371</v>
-      </c>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
       <c r="E353" s="2"/>
       <c r="F353" s="1"/>
     </row>
-    <row r="354" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:6" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="5"/>
       <c r="F354" s="4"/>
     </row>
-    <row r="355" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B355" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C355" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D355" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E355" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F355" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="356" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B356" s="12" t="s">
-        <v>13</v>
-      </c>
+    <row r="355" spans="2:6" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B355" s="6"/>
+      <c r="C355" s="6"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+      <c r="F355" s="6"/>
+    </row>
+    <row r="356" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B356" s="12"/>
       <c r="C356" s="13"/>
-      <c r="D356" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E356" s="45">
-        <v>1</v>
-      </c>
-      <c r="F356" s="15">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="357" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D356" s="13"/>
+      <c r="E356" s="45"/>
+      <c r="F356" s="15"/>
+    </row>
+    <row r="357" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="21"/>
       <c r="C357" s="21"/>
       <c r="D357" s="21"/>
       <c r="E357" s="22"/>
       <c r="F357" s="21"/>
     </row>
-    <row r="358" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
       <c r="D358" s="21"/>
       <c r="E358" s="22"/>
       <c r="F358" s="21"/>
     </row>
-    <row r="359" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B359" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C359" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="D359" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E359" s="22">
-        <v>1</v>
-      </c>
-      <c r="F359" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="360" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B360" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C360" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="D360" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E360" s="22">
-        <v>1</v>
-      </c>
-      <c r="F360" s="30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="361" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B359" s="28"/>
+      <c r="C359" s="21"/>
+      <c r="D359" s="21"/>
+      <c r="E359" s="22"/>
+      <c r="F359" s="30"/>
+    </row>
+    <row r="360" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B360" s="28"/>
+      <c r="C360" s="21"/>
+      <c r="D360" s="21"/>
+      <c r="E360" s="22"/>
+      <c r="F360" s="30"/>
+    </row>
+    <row r="361" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="108"/>
       <c r="C361" s="116"/>
       <c r="D361" s="116"/>
       <c r="E361" s="117"/>
       <c r="F361" s="110"/>
     </row>
-    <row r="362" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="108"/>
       <c r="C362" s="116"/>
       <c r="D362" s="116"/>
       <c r="E362" s="117"/>
       <c r="F362" s="110"/>
     </row>
-    <row r="363" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B363" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C363" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="D363" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E363" s="22">
-        <v>1</v>
-      </c>
-      <c r="F363" s="30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="364" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B364" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C364" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="D364" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="E364" s="22">
-        <v>1</v>
-      </c>
-      <c r="F364" s="30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="365" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B365" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C365" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="D365" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E365" s="22">
-        <v>1</v>
-      </c>
-      <c r="F365" s="30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="366" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B363" s="28"/>
+      <c r="C363" s="21"/>
+      <c r="D363" s="21"/>
+      <c r="E363" s="22"/>
+      <c r="F363" s="30"/>
+    </row>
+    <row r="364" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B364" s="28"/>
+      <c r="C364" s="21"/>
+      <c r="D364" s="21"/>
+      <c r="E364" s="22"/>
+      <c r="F364" s="30"/>
+    </row>
+    <row r="365" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B365" s="28"/>
+      <c r="C365" s="21"/>
+      <c r="D365" s="21"/>
+      <c r="E365" s="22"/>
+      <c r="F365" s="30"/>
+    </row>
+    <row r="366" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="28"/>
       <c r="C366" s="21"/>
       <c r="D366" s="21"/>
       <c r="E366" s="22"/>
       <c r="F366" s="30"/>
     </row>
-    <row r="367" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B367" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C367" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="D367" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="E367" s="22">
-        <v>1</v>
-      </c>
-      <c r="F367" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="368" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B368" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C368" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="D368" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="E368" s="22">
-        <v>1</v>
-      </c>
-      <c r="F368" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="369" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B369" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C369" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D369" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E369" s="22">
-        <v>1</v>
-      </c>
-      <c r="F369" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="370" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B370" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C370" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="D370" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E370" s="22">
-        <v>1</v>
-      </c>
-      <c r="F370" s="30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="371" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B371" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C371" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="D371" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E371" s="22">
-        <v>1</v>
-      </c>
-      <c r="F371" s="30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="372" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B367" s="28"/>
+      <c r="C367" s="21"/>
+      <c r="D367" s="21"/>
+      <c r="E367" s="22"/>
+      <c r="F367" s="30"/>
+    </row>
+    <row r="368" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B368" s="28"/>
+      <c r="C368" s="21"/>
+      <c r="D368" s="21"/>
+      <c r="E368" s="22"/>
+      <c r="F368" s="30"/>
+    </row>
+    <row r="369" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B369" s="28"/>
+      <c r="C369" s="21"/>
+      <c r="D369" s="21"/>
+      <c r="E369" s="22"/>
+      <c r="F369" s="30"/>
+    </row>
+    <row r="370" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B370" s="28"/>
+      <c r="C370" s="21"/>
+      <c r="D370" s="21"/>
+      <c r="E370" s="22"/>
+      <c r="F370" s="30"/>
+    </row>
+    <row r="371" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B371" s="28"/>
+      <c r="C371" s="21"/>
+      <c r="D371" s="21"/>
+      <c r="E371" s="22"/>
+      <c r="F371" s="30"/>
+    </row>
+    <row r="372" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="28"/>
       <c r="C372" s="21"/>
       <c r="D372" s="21"/>
       <c r="E372" s="22"/>
       <c r="F372" s="30"/>
     </row>
-    <row r="373" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="108"/>
       <c r="C373" s="116"/>
       <c r="D373" s="116"/>
       <c r="E373" s="117"/>
       <c r="F373" s="110"/>
     </row>
-    <row r="374" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="28"/>
       <c r="C374" s="21"/>
       <c r="D374" s="21"/>
       <c r="E374" s="22"/>
       <c r="F374" s="30"/>
     </row>
-    <row r="375" spans="2:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="108"/>
       <c r="C375" s="116"/>
       <c r="D375" s="116"/>
       <c r="E375" s="117"/>
       <c r="F375" s="110"/>
     </row>
-    <row r="376" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:6" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B376" s="21"/>
       <c r="C376" s="21"/>
       <c r="D376" s="21"/>
       <c r="E376" s="22"/>
       <c r="F376" s="21"/>
     </row>
-    <row r="377" spans="2:6" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:6" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B377" s="40"/>
       <c r="C377" s="40"/>
       <c r="D377" s="41"/>
-      <c r="E377" s="42">
-        <f>SUM(E356:E376)</f>
-        <v>11</v>
-      </c>
-      <c r="F377" s="43">
-        <f>SUM(F359:F376)-SUM(F356:F358)</f>
-        <v>80</v>
-      </c>
+      <c r="E377" s="42"/>
+      <c r="F377" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -12723,18 +12550,18 @@
       <selection activeCell="B6" sqref="B6:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.296875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="11.796875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="46" customWidth="1"/>
     <col min="3" max="3" width="31" style="46" customWidth="1"/>
-    <col min="4" max="4" width="35.296875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="46" customWidth="1"/>
     <col min="5" max="6" width="9" style="46" customWidth="1"/>
     <col min="7" max="7" width="11" style="46" customWidth="1"/>
     <col min="8" max="256" width="9" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -12751,7 +12578,7 @@
       </c>
       <c r="K1" s="49"/>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -12766,7 +12593,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
@@ -12779,7 +12606,7 @@
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
@@ -12794,7 +12621,7 @@
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
     </row>
-    <row r="5" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -12807,7 +12634,7 @@
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
     </row>
-    <row r="6" spans="1:11" ht="14.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55"/>
       <c r="B6" s="56" t="s">
         <v>3</v>
@@ -12832,7 +12659,7 @@
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
     </row>
-    <row r="7" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="55"/>
       <c r="B7" s="62">
         <v>1</v>
@@ -12857,7 +12684,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="61"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="55"/>
       <c r="B8" s="62">
         <v>2</v>
@@ -12882,7 +12709,7 @@
       <c r="J8" s="49"/>
       <c r="K8" s="49"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55"/>
       <c r="B9" s="62">
         <v>3</v>
@@ -12907,7 +12734,7 @@
       <c r="J9" s="49"/>
       <c r="K9" s="49"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55"/>
       <c r="B10" s="62">
         <v>4</v>
@@ -12932,7 +12759,7 @@
       <c r="J10" s="49"/>
       <c r="K10" s="49"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55"/>
       <c r="B11" s="62">
         <v>5</v>
@@ -12957,7 +12784,7 @@
       <c r="J11" s="49"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55"/>
       <c r="B12" s="62">
         <v>6</v>
@@ -12982,7 +12809,7 @@
       <c r="J12" s="49"/>
       <c r="K12" s="49"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55"/>
       <c r="B13" s="62">
         <v>7</v>
@@ -13007,7 +12834,7 @@
       <c r="J13" s="49"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55"/>
       <c r="B14" s="62">
         <v>8</v>
@@ -13032,7 +12859,7 @@
       <c r="J14" s="49"/>
       <c r="K14" s="49"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55"/>
       <c r="B15" s="62">
         <v>9</v>
@@ -13057,7 +12884,7 @@
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55"/>
       <c r="B16" s="62">
         <v>10</v>
@@ -13082,7 +12909,7 @@
       <c r="J16" s="49"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55"/>
       <c r="B17" s="62">
         <v>11</v>
@@ -13107,7 +12934,7 @@
       <c r="J17" s="49"/>
       <c r="K17" s="49"/>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55"/>
       <c r="B18" s="62">
         <v>12</v>
@@ -13132,7 +12959,7 @@
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="55"/>
       <c r="B19" s="62">
         <v>13</v>
@@ -13157,7 +12984,7 @@
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
       <c r="B20" s="67"/>
       <c r="C20" s="3"/>
@@ -13170,7 +12997,7 @@
       <c r="J20" s="49"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
@@ -13183,7 +13010,7 @@
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
@@ -13217,17 +13044,17 @@
       <selection activeCell="A24" sqref="A24:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.296875" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="9.296875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="31.296875" style="46" customWidth="1"/>
-    <col min="6" max="7" width="9.296875" style="46" customWidth="1"/>
-    <col min="8" max="257" width="8.796875" style="46" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="46" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" style="46" customWidth="1"/>
+    <col min="8" max="257" width="8.83203125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="71" t="s">
         <v>252</v>
       </c>
@@ -13237,7 +13064,7 @@
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -13245,7 +13072,7 @@
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
     </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="72" t="s">
         <v>74</v>
       </c>
@@ -13255,7 +13082,7 @@
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="76" t="s">
         <v>87</v>
       </c>
@@ -13278,7 +13105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
         <v>88</v>
       </c>
@@ -13301,7 +13128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="76" t="s">
         <v>89</v>
       </c>
@@ -13324,7 +13151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="76" t="s">
         <v>90</v>
       </c>
@@ -13347,7 +13174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="76" t="s">
         <v>91</v>
       </c>
@@ -13370,7 +13197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="76"/>
       <c r="B9" s="74"/>
       <c r="C9" s="74"/>
@@ -13379,7 +13206,7 @@
       <c r="F9" s="48"/>
       <c r="G9" s="70"/>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="72" t="s">
         <v>154</v>
       </c>
@@ -13389,7 +13216,7 @@
       <c r="F10" s="48"/>
       <c r="G10" s="70"/>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="76" t="s">
         <v>92</v>
       </c>
@@ -13412,7 +13239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="76" t="s">
         <v>93</v>
       </c>
@@ -13435,7 +13262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="76" t="s">
         <v>94</v>
       </c>
@@ -13458,7 +13285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="76" t="s">
         <v>95</v>
       </c>
@@ -13481,7 +13308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="74"/>
       <c r="C15" s="73"/>
       <c r="D15" s="48"/>
@@ -13489,7 +13316,7 @@
       <c r="F15" s="75"/>
       <c r="G15" s="48"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="72" t="s">
         <v>353</v>
       </c>
@@ -13499,7 +13326,7 @@
       <c r="F16" s="75"/>
       <c r="G16" s="48"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -13522,7 +13349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="74"/>
       <c r="C18" s="73"/>
       <c r="D18" s="73"/>
@@ -13530,7 +13357,7 @@
       <c r="F18" s="75"/>
       <c r="G18" s="48"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="74"/>
       <c r="C19" s="73"/>
       <c r="D19" s="48"/>
@@ -13538,7 +13365,7 @@
       <c r="F19" s="75"/>
       <c r="G19" s="48"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="72" t="s">
         <v>75</v>
       </c>
@@ -13548,7 +13375,7 @@
       <c r="F20" s="75"/>
       <c r="G20" s="48"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="76" t="s">
         <v>304</v>
       </c>
@@ -13571,7 +13398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="76" t="s">
         <v>305</v>
       </c>
@@ -13594,7 +13421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="74"/>
       <c r="C23" s="74"/>
       <c r="D23" s="73"/>
@@ -13602,7 +13429,7 @@
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="72" t="s">
         <v>76</v>
       </c>
@@ -13612,7 +13439,7 @@
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="76" t="s">
         <v>354</v>
       </c>
@@ -13635,7 +13462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
       <c r="D26" s="73"/>
@@ -13643,7 +13470,7 @@
       <c r="F26" s="48"/>
       <c r="G26" s="48"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="72" t="s">
         <v>77</v>
       </c>
@@ -13654,7 +13481,7 @@
       <c r="G27" s="48"/>
       <c r="K27" s="118"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="74" t="s">
         <v>124</v>
       </c>
